--- a/100runs/run041/NotionalETEOutput041.xlsx
+++ b/100runs/run041/NotionalETEOutput041.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,25 +49,16 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
-  </si>
-  <si>
     <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
     <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_148.MISSILE_BRAVER_148</t>
+    <t>MISSILE_HIGHWIND_252.MISSILE_HIGHWIND_252</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_29.MISSILE_HIGHWIND_29</t>
-  </si>
-  <si>
-    <t>MISSILE_HELLMASKER_54.MISSILE_HELLMASKER_54</t>
-  </si>
-  <si>
-    <t>MISSILE_BRAVER</t>
+    <t>MISSILE_HELLMASKER_276.MISSILE_HELLMASKER_276</t>
   </si>
   <si>
     <t>MISSILE_HIGHWIND</t>
@@ -431,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,31 +471,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>150.3137101292904</v>
+        <v>1116577.991097551</v>
       </c>
       <c r="G2">
-        <v>-103.1161979591069</v>
+        <v>4841127.304954553</v>
       </c>
       <c r="H2">
-        <v>964.3190053300777</v>
+        <v>3985219.730709609</v>
       </c>
       <c r="I2">
-        <v>-802.6078638516237</v>
+        <v>1114860.463644624</v>
       </c>
       <c r="J2">
-        <v>1816.138227136158</v>
+        <v>4843228.191841421</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984360.81169541</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,31 +506,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>150.3137101292904</v>
+        <v>1116577.991097551</v>
       </c>
       <c r="G3">
-        <v>-103.1161979591069</v>
+        <v>4841127.304954553</v>
       </c>
       <c r="H3">
-        <v>964.3190053300777</v>
+        <v>3985219.730709609</v>
       </c>
       <c r="I3">
-        <v>-786.7622474852831</v>
+        <v>1114890.077617347</v>
       </c>
       <c r="J3">
-        <v>1771.959222533656</v>
+        <v>4843179.54020379</v>
       </c>
       <c r="K3">
-        <v>362.4837626531473</v>
+        <v>3984664.606962318</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,31 +541,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>150.3137101292904</v>
+        <v>1116577.991097551</v>
       </c>
       <c r="G4">
-        <v>-103.1161979591069</v>
+        <v>4841127.304954553</v>
       </c>
       <c r="H4">
-        <v>964.3190053300777</v>
+        <v>3985219.730709609</v>
       </c>
       <c r="I4">
-        <v>-770.5264473936211</v>
+        <v>1114920.420806903</v>
       </c>
       <c r="J4">
-        <v>1727.780217931153</v>
+        <v>4843130.88856616</v>
       </c>
       <c r="K4">
-        <v>706.8924233344906</v>
+        <v>3984953.253604671</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,31 +576,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>150.3137101292904</v>
+        <v>1116577.991097551</v>
       </c>
       <c r="G5">
-        <v>-103.1161979591069</v>
+        <v>4841127.304954553</v>
       </c>
       <c r="H5">
-        <v>964.3190053300777</v>
+        <v>3985219.730709609</v>
       </c>
       <c r="I5">
-        <v>-753.890855661364</v>
+        <v>1114951.511169587</v>
       </c>
       <c r="J5">
-        <v>1683.60121332865</v>
+        <v>4843082.236928529</v>
       </c>
       <c r="K5">
-        <v>1033.225982044032</v>
+        <v>3985226.751622467</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,31 +611,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>150.3137101292904</v>
+        <v>1116577.991097551</v>
       </c>
       <c r="G6">
-        <v>-103.1161979591069</v>
+        <v>4841127.304954553</v>
       </c>
       <c r="H6">
-        <v>964.3190053300777</v>
+        <v>3985219.730709609</v>
       </c>
       <c r="I6">
-        <v>-736.8456277871639</v>
+        <v>1114983.367103849</v>
       </c>
       <c r="J6">
-        <v>1639.422208726148</v>
+        <v>4843033.5852909</v>
       </c>
       <c r="K6">
-        <v>1341.484438781771</v>
+        <v>3985485.101015709</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,31 +646,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>150.3137101292904</v>
+        <v>1116577.991097551</v>
       </c>
       <c r="G7">
-        <v>-103.1161979591069</v>
+        <v>4841127.304954553</v>
       </c>
       <c r="H7">
-        <v>964.3190053300777</v>
+        <v>3985219.730709609</v>
       </c>
       <c r="I7">
-        <v>-719.3806768578836</v>
+        <v>1115016.007461186</v>
       </c>
       <c r="J7">
-        <v>1595.243204123645</v>
+        <v>4842984.933653269</v>
       </c>
       <c r="K7">
-        <v>1631.667793547708</v>
+        <v>3985728.301784395</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,31 +681,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>150.3137101292904</v>
+        <v>1116577.991097551</v>
       </c>
       <c r="G8">
-        <v>-103.1161979591069</v>
+        <v>4841127.304954553</v>
       </c>
       <c r="H8">
-        <v>964.3190053300777</v>
+        <v>3985219.730709609</v>
       </c>
       <c r="I8">
-        <v>-701.48566757943</v>
+        <v>1115049.451557294</v>
       </c>
       <c r="J8">
-        <v>1551.064199521142</v>
+        <v>4842936.282015638</v>
       </c>
       <c r="K8">
-        <v>1903.776046341842</v>
+        <v>3985956.353928525</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,31 +716,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>150.3137101292904</v>
+        <v>1116577.991097551</v>
       </c>
       <c r="G9">
-        <v>-103.1161979591069</v>
+        <v>4841127.304954553</v>
       </c>
       <c r="H9">
-        <v>964.3190053300777</v>
+        <v>3985219.730709609</v>
       </c>
       <c r="I9">
-        <v>-683.1500101606013</v>
+        <v>1115083.7191835</v>
       </c>
       <c r="J9">
-        <v>1506.885194918639</v>
+        <v>4842887.630378008</v>
       </c>
       <c r="K9">
-        <v>2157.809197164174</v>
+        <v>3986169.2574481</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,31 +751,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>150.3137101292904</v>
+        <v>1116577.991097551</v>
       </c>
       <c r="G10">
-        <v>-86.08881114604175</v>
+        <v>4841143.817783115</v>
       </c>
       <c r="H10">
-        <v>964.3190053300777</v>
+        <v>3985219.730709609</v>
       </c>
       <c r="I10">
-        <v>-664.3628540463294</v>
+        <v>1115118.830618476</v>
       </c>
       <c r="J10">
-        <v>1462.706190316137</v>
+        <v>4842838.978740378</v>
       </c>
       <c r="K10">
-        <v>2393.767246014703</v>
+        <v>3986367.012343118</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,31 +786,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>116.6609741254403</v>
+        <v>1116529.310556136</v>
       </c>
       <c r="G11">
-        <v>-69.06142433297659</v>
+        <v>4841160.330611677</v>
       </c>
       <c r="H11">
-        <v>1188.034525610245</v>
+        <v>3985418.984686516</v>
       </c>
       <c r="I11">
-        <v>-645.1130814966102</v>
+        <v>1115154.806640236</v>
       </c>
       <c r="J11">
-        <v>1418.527185713634</v>
+        <v>4842790.327102748</v>
       </c>
       <c r="K11">
-        <v>2611.650192893429</v>
+        <v>3986549.618613582</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,31 +821,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>96.89167992665476</v>
+        <v>1116500.713180134</v>
       </c>
       <c r="G12">
-        <v>-52.03403751991143</v>
+        <v>4841176.84344024</v>
       </c>
       <c r="H12">
-        <v>1321.290930735177</v>
+        <v>3985537.670545397</v>
       </c>
       <c r="I12">
-        <v>-625.3893010073203</v>
+        <v>1115191.668538435</v>
       </c>
       <c r="J12">
-        <v>1374.348181111131</v>
+        <v>4842741.675465117</v>
       </c>
       <c r="K12">
-        <v>2811.458037800353</v>
+        <v>3986717.076259491</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,31 +856,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>84.4118510795782</v>
+        <v>1116482.660418392</v>
       </c>
       <c r="G13">
-        <v>-35.00665070684627</v>
+        <v>4841193.356268803</v>
       </c>
       <c r="H13">
-        <v>1416.520277021853</v>
+        <v>3985622.487307069</v>
       </c>
       <c r="I13">
-        <v>-605.1798405690265</v>
+        <v>1115229.438126964</v>
       </c>
       <c r="J13">
-        <v>1330.169176508629</v>
+        <v>4842693.023827487</v>
       </c>
       <c r="K13">
-        <v>2993.190780735475</v>
+        <v>3986869.385280843</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -900,31 +891,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>75.70846910022635</v>
+        <v>1116470.070495634</v>
       </c>
       <c r="G14">
-        <v>-17.9792638937811</v>
+        <v>4841209.869097364</v>
       </c>
       <c r="H14">
-        <v>1490.675317956129</v>
+        <v>3985688.534073942</v>
       </c>
       <c r="I14">
-        <v>-584.4727407598028</v>
+        <v>1115268.137756864</v>
       </c>
       <c r="J14">
-        <v>1285.990171906126</v>
+        <v>4842644.372189857</v>
       </c>
       <c r="K14">
-        <v>3156.848421698794</v>
+        <v>3987006.54567764</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -935,31 +926,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>69.21548550707746</v>
+        <v>1116460.678036231</v>
       </c>
       <c r="G15">
-        <v>-0.9518770807159481</v>
+        <v>4841226.381925927</v>
       </c>
       <c r="H15">
-        <v>1551.414048470578</v>
+        <v>3985742.631499066</v>
       </c>
       <c r="I15">
-        <v>-563.2557476679594</v>
+        <v>1115307.790329547</v>
       </c>
       <c r="J15">
-        <v>1241.811167303623</v>
+        <v>4842595.720552227</v>
       </c>
       <c r="K15">
-        <v>3302.43096069031</v>
+        <v>3987128.557449881</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -970,31 +961,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>64.1388790555125</v>
+        <v>1116453.334444596</v>
       </c>
       <c r="G16">
-        <v>16.07550973234922</v>
+        <v>4841242.894754488</v>
       </c>
       <c r="H16">
-        <v>1602.855319503882</v>
+        <v>3985788.448069225</v>
       </c>
       <c r="I16">
-        <v>-541.5163056405053</v>
+        <v>1115348.419310352</v>
       </c>
       <c r="J16">
-        <v>1197.63216270112</v>
+        <v>4842547.068914596</v>
       </c>
       <c r="K16">
-        <v>3429.938397710024</v>
+        <v>3987235.420597568</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1005,31 +996,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>60.03153479636022</v>
+        <v>1116447.392944259</v>
       </c>
       <c r="G17">
-        <v>33.10289654541438</v>
+        <v>4841259.40758305</v>
       </c>
       <c r="H17">
-        <v>1647.471253273582</v>
+        <v>3985828.185599397</v>
       </c>
       <c r="I17">
-        <v>-519.2415498530447</v>
+        <v>1115390.048742432</v>
       </c>
       <c r="J17">
-        <v>1153.453158098618</v>
+        <v>4842498.417276965</v>
       </c>
       <c r="K17">
-        <v>3539.370732757935</v>
+        <v>3987327.135120697</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1040,31 +1031,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>56.62097553251575</v>
+        <v>1116442.459381904</v>
       </c>
       <c r="G18">
-        <v>50.13028335847954</v>
+        <v>4841275.920411613</v>
       </c>
       <c r="H18">
-        <v>1686.862707880571</v>
+        <v>3985863.269906363</v>
       </c>
       <c r="I18">
-        <v>-496.4182986967177</v>
+        <v>1115432.703260979</v>
       </c>
       <c r="J18">
-        <v>1109.274153496115</v>
+        <v>4842449.765639336</v>
       </c>
       <c r="K18">
-        <v>3630.727965834045</v>
+        <v>3987403.701019272</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1075,31 +1066,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>53.73078316910787</v>
+        <v>1116438.278559013</v>
       </c>
       <c r="G19">
-        <v>67.15767017154471</v>
+        <v>4841292.433240174</v>
       </c>
       <c r="H19">
-        <v>1722.125986452069</v>
+        <v>3985894.677421073</v>
       </c>
       <c r="I19">
-        <v>-473.033045977672</v>
+        <v>1115476.408107803</v>
       </c>
       <c r="J19">
-        <v>1065.095148893612</v>
+        <v>4842401.114001705</v>
       </c>
       <c r="K19">
-        <v>3704.010096938351</v>
+        <v>3987465.118293292</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1110,31 +1101,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>51.24116441625762</v>
+        <v>1116434.677187974</v>
       </c>
       <c r="G20">
-        <v>84.18505698460987</v>
+        <v>4841308.946068737</v>
       </c>
       <c r="H20">
-        <v>1754.044854161988</v>
+        <v>3985923.106210107</v>
       </c>
       <c r="I20">
-        <v>-449.0719529244578</v>
+        <v>1115521.189146273</v>
       </c>
       <c r="J20">
-        <v>1020.91614429111</v>
+        <v>4842352.462364075</v>
       </c>
       <c r="K20">
-        <v>3759.217126070855</v>
+        <v>3987511.386942755</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1145,31 +1136,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>49.06759860210041</v>
+        <v>1116431.533004969</v>
       </c>
       <c r="G21">
-        <v>101.212443797675</v>
+        <v>4841325.458897299</v>
       </c>
       <c r="H21">
-        <v>1783.199095250087</v>
+        <v>3985949.072662829</v>
       </c>
       <c r="I21">
-        <v>-424.5208399986098</v>
+        <v>1115567.072876617</v>
       </c>
       <c r="J21">
-        <v>976.737139688607</v>
+        <v>4842303.810726444</v>
       </c>
       <c r="K21">
-        <v>3796.349053231556</v>
+        <v>3987542.506967664</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1180,31 +1171,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>47.14854542192166</v>
+        <v>1116428.756988546</v>
       </c>
       <c r="G22">
-        <v>118.2398306107402</v>
+        <v>4841341.971725861</v>
       </c>
       <c r="H22">
-        <v>1810.029680325305</v>
+        <v>3985972.969533159</v>
       </c>
       <c r="I22">
-        <v>-399.3651785035723</v>
+        <v>1115614.086451608</v>
       </c>
       <c r="J22">
-        <v>932.5581350861045</v>
+        <v>4842255.159088815</v>
       </c>
       <c r="K22">
-        <v>3815.405878420455</v>
+        <v>3987558.478368016</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1215,31 +1206,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>45.43800327332032</v>
+        <v>1116426.282594847</v>
       </c>
       <c r="G23">
-        <v>135.2672174238054</v>
+        <v>4841358.484554423</v>
       </c>
       <c r="H23">
-        <v>1834.879823284361</v>
+        <v>3985995.102507237</v>
       </c>
       <c r="I23">
-        <v>-373.5900819870038</v>
+        <v>1115662.257692633</v>
       </c>
       <c r="J23">
-        <v>888.3791304836017</v>
+        <v>4842206.507451184</v>
       </c>
       <c r="K23">
-        <v>3816.387601637552</v>
+        <v>3987559.301143814</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1250,31 +1241,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>43.90081100859221</v>
+        <v>1116424.058961331</v>
       </c>
       <c r="G24">
-        <v>152.2946042368705</v>
+        <v>4841374.997382985</v>
       </c>
       <c r="H24">
-        <v>1858.021898560125</v>
+        <v>3986015.714177482</v>
       </c>
       <c r="I24">
-        <v>-347.1802974313688</v>
+        <v>1115711.61510615</v>
       </c>
       <c r="J24">
-        <v>844.2001258810989</v>
+        <v>4842157.855813554</v>
       </c>
       <c r="K24">
-        <v>3799.294222882846</v>
+        <v>3987544.975295055</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1285,31 +1276,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>42.50957448081478</v>
+        <v>1116422.046460849</v>
       </c>
       <c r="G25">
-        <v>169.3219910499357</v>
+        <v>4841391.510211547</v>
       </c>
       <c r="H25">
-        <v>1879.675687515893</v>
+        <v>3986035.000293882</v>
       </c>
       <c r="I25">
-        <v>-320.1201962276074</v>
+        <v>1115762.187900568</v>
       </c>
       <c r="J25">
-        <v>800.0211212785963</v>
+        <v>4842109.204175923</v>
       </c>
       <c r="K25">
-        <v>3764.125742156337</v>
+        <v>3987515.500821741</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1320,31 +1311,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>41.24259384851263</v>
+        <v>1116420.213703384</v>
       </c>
       <c r="G26">
-        <v>186.3493778630009</v>
+        <v>4841408.023040109</v>
       </c>
       <c r="H26">
-        <v>1900.021103835451</v>
+        <v>3986053.121097966</v>
       </c>
       <c r="I26">
-        <v>-292.3937649265401</v>
+        <v>1115814.006003521</v>
       </c>
       <c r="J26">
-        <v>755.8421166760935</v>
+        <v>4842060.552538293</v>
       </c>
       <c r="K26">
-        <v>3710.882159458026</v>
+        <v>3987470.877723872</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1355,31 +1346,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>40.08242843348684</v>
+        <v>1116418.53546003</v>
       </c>
       <c r="G27">
-        <v>203.376764676066</v>
+        <v>4841424.535868671</v>
       </c>
       <c r="H27">
-        <v>1919.207288683248</v>
+        <v>3986070.209423477</v>
       </c>
       <c r="I27">
-        <v>-263.9845957625332</v>
+        <v>1115867.100079589</v>
       </c>
       <c r="J27">
-        <v>711.6631120735907</v>
+        <v>4842011.900900662</v>
       </c>
       <c r="K27">
-        <v>3639.563474787912</v>
+        <v>3987411.106001446</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1390,31 +1381,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>39.01487984258493</v>
+        <v>1116416.991192028</v>
       </c>
       <c r="G28">
-        <v>220.4041514891312</v>
+        <v>4841441.048697233</v>
       </c>
       <c r="H28">
-        <v>1937.359251575155</v>
+        <v>3986086.37661112</v>
       </c>
       <c r="I28">
-        <v>-234.875876943819</v>
+        <v>1115921.501548434</v>
       </c>
       <c r="J28">
-        <v>667.4841074710881</v>
+        <v>4841963.249263032</v>
       </c>
       <c r="K28">
-        <v>3550.169688145996</v>
+        <v>3987336.185654466</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1425,31 +1416,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>38.02825664981326</v>
+        <v>1116415.563987084</v>
       </c>
       <c r="G29">
-        <v>237.4315383021963</v>
+        <v>4841457.561525796</v>
       </c>
       <c r="H29">
-        <v>1954.582811163558</v>
+        <v>3986101.716909103</v>
       </c>
       <c r="I29">
-        <v>-205.050382703724</v>
+        <v>1115977.2426034</v>
       </c>
       <c r="J29">
-        <v>623.3051028685853</v>
+        <v>4841914.597625402</v>
       </c>
       <c r="K29">
-        <v>3442.700799532277</v>
+        <v>3987246.11668293</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1460,31 +1451,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>37.11283298349625</v>
+        <v>1116414.239776188</v>
       </c>
       <c r="G30">
-        <v>254.4589251152615</v>
+        <v>4841474.074354357</v>
       </c>
       <c r="H30">
-        <v>1970.968332869347</v>
+        <v>3986116.310802095</v>
       </c>
       <c r="I30">
-        <v>-174.4904631069183</v>
+        <v>1116034.356230565</v>
       </c>
       <c r="J30">
-        <v>579.1260982660826</v>
+        <v>4841865.945987772</v>
       </c>
       <c r="K30">
-        <v>3317.156808946756</v>
+        <v>3987140.899086839</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1495,31 +1486,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>36.26044339084077</v>
+        <v>1116413.006747562</v>
       </c>
       <c r="G31">
-        <v>271.4863119283266</v>
+        <v>4841490.587182919</v>
       </c>
       <c r="H31">
-        <v>1986.593598675166</v>
+        <v>3986130.227567226</v>
       </c>
       <c r="I31">
-        <v>-143.1780336046519</v>
+        <v>1116092.876228255</v>
       </c>
       <c r="J31">
-        <v>534.9470936635801</v>
+        <v>4841817.294350141</v>
       </c>
       <c r="K31">
-        <v>3173.537716389433</v>
+        <v>3987020.532866192</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1530,31 +1521,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>35.46417523823048</v>
+        <v>1116411.854901697</v>
       </c>
       <c r="G32">
-        <v>288.5136987413918</v>
+        <v>4841507.100011482</v>
       </c>
       <c r="H32">
-        <v>2001.526040190694</v>
+        <v>3986143.527262988</v>
       </c>
       <c r="I32">
-        <v>-111.0945643327991</v>
+        <v>1116152.83722705</v>
       </c>
       <c r="J32">
-        <v>490.7680890610773</v>
+        <v>4841768.642712511</v>
       </c>
       <c r="K32">
-        <v>3011.843521860306</v>
+        <v>3986885.018020988</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1565,31 +1556,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>34.71813207442896</v>
+        <v>1116410.775709054</v>
       </c>
       <c r="G33">
-        <v>305.541085554457</v>
+        <v>4841523.612840043</v>
       </c>
       <c r="H33">
-        <v>2015.824497338069</v>
+        <v>3986156.262295616</v>
       </c>
       <c r="I33">
-        <v>-78.22106914637722</v>
+        <v>1116214.274710278</v>
       </c>
       <c r="J33">
-        <v>446.5890844585747</v>
+        <v>4841719.991074881</v>
       </c>
       <c r="K33">
-        <v>2832.074225359378</v>
+        <v>3986734.354551231</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1600,31 +1591,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>34.01724939710645</v>
+        <v>1116409.761843548</v>
       </c>
       <c r="G34">
-        <v>322.5684723675221</v>
+        <v>4841540.125668606</v>
       </c>
       <c r="H34">
-        <v>2029.540618674435</v>
+        <v>3986168.478666303</v>
       </c>
       <c r="I34">
-        <v>-44.53809438405069</v>
+        <v>1116277.225035009</v>
       </c>
       <c r="J34">
-        <v>402.4100798560719</v>
+        <v>4841671.339437251</v>
       </c>
       <c r="K34">
-        <v>2634.229826886647</v>
+        <v>3986568.542456917</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1635,31 +1626,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>33.35714964481283</v>
+        <v>1116408.806972797</v>
       </c>
       <c r="G35">
-        <v>339.5958591805873</v>
+        <v>4841556.638497168</v>
       </c>
       <c r="H35">
-        <v>2042.719987558281</v>
+        <v>3986180.216974221</v>
       </c>
       <c r="I35">
-        <v>-10.0257073559706</v>
+        <v>1116341.725453573</v>
       </c>
       <c r="J35">
-        <v>358.2310752535691</v>
+        <v>4841622.68779962</v>
       </c>
       <c r="K35">
-        <v>2418.310326442112</v>
+        <v>3986387.581738047</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1670,31 +1661,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>32.73402691619194</v>
+        <v>1116407.905591352</v>
       </c>
       <c r="G36">
-        <v>356.6232459936525</v>
+        <v>4841573.151325731</v>
       </c>
       <c r="H36">
-        <v>2055.403036149294</v>
+        <v>3986191.513230592</v>
       </c>
       <c r="I36">
-        <v>25.33651545186218</v>
+        <v>1116407.814135604</v>
       </c>
       <c r="J36">
-        <v>314.0520706510665</v>
+        <v>4841574.03616199</v>
       </c>
       <c r="K36">
-        <v>2184.315724025776</v>
+        <v>3986191.472394622</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1705,31 +1696,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>32.14455447568925</v>
+        <v>1116407.052886907</v>
       </c>
       <c r="G37">
-        <v>373.6506328067176</v>
+        <v>4841589.664154293</v>
       </c>
       <c r="H37">
-        <v>2067.625793470947</v>
+        <v>3986202.399524944</v>
       </c>
       <c r="I37">
-        <v>61.56950046368935</v>
+        <v>1116475.530190631</v>
       </c>
       <c r="J37">
-        <v>269.8730660485638</v>
+        <v>4841525.384524359</v>
       </c>
       <c r="K37">
-        <v>1932.246019637638</v>
+        <v>3985980.214426642</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1740,31 +1731,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>31.58580990935172</v>
+        <v>1116406.24463203</v>
       </c>
       <c r="G38">
-        <v>390.6780196197828</v>
+        <v>4841606.176982854</v>
       </c>
       <c r="H38">
-        <v>2079.420502423954</v>
+        <v>3986212.904574672</v>
       </c>
       <c r="I38">
-        <v>98.6946893976981</v>
+        <v>1116544.913691215</v>
       </c>
       <c r="J38">
-        <v>225.6940614460612</v>
+        <v>4841476.73288673</v>
       </c>
       <c r="K38">
-        <v>1662.101213277697</v>
+        <v>3985753.807834106</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1775,31 +1766,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>31.05521408505086</v>
+        <v>1116405.477095863</v>
       </c>
       <c r="G39">
-        <v>407.705406432848</v>
+        <v>4841622.689811417</v>
       </c>
       <c r="H39">
-        <v>2090.816132369906</v>
+        <v>3986223.054181562</v>
       </c>
       <c r="I39">
-        <v>136.7340519546589</v>
+        <v>1116616.005696669</v>
       </c>
       <c r="J39">
-        <v>181.5150568435584</v>
+        <v>4841428.081249098</v>
       </c>
       <c r="K39">
-        <v>1373.881304945952</v>
+        <v>3985512.252617014</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1810,31 +1801,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>30.55048100662455</v>
+        <v>1116404.746971587</v>
       </c>
       <c r="G40">
-        <v>424.7327932459131</v>
+        <v>4841639.202639979</v>
       </c>
       <c r="H40">
-        <v>2101.838807802226</v>
+        <v>3986232.8716136</v>
       </c>
       <c r="I40">
-        <v>175.7100988190133</v>
+        <v>1116688.848277353</v>
       </c>
       <c r="J40">
-        <v>137.3360522410556</v>
+        <v>4841379.429611469</v>
       </c>
       <c r="K40">
-        <v>1067.586294642406</v>
+        <v>3985255.548775367</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1845,31 +1836,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>30.06957633703722</v>
+        <v>1116404.05131642</v>
       </c>
       <c r="G41">
-        <v>441.7601800589783</v>
+        <v>4841655.715468541</v>
       </c>
       <c r="H41">
-        <v>2112.512169067533</v>
+        <v>3986242.377926243</v>
       </c>
       <c r="I41">
-        <v>215.6458949800962</v>
+        <v>1116763.484539574</v>
       </c>
       <c r="J41">
-        <v>93.15704763855305</v>
+        <v>4841330.777973838</v>
       </c>
       <c r="K41">
-        <v>743.216182367058</v>
+        <v>3984983.696309165</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,31 +1871,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>29.61068287385393</v>
+        <v>1116403.387501679</v>
       </c>
       <c r="G42">
-        <v>458.7875668720434</v>
+        <v>4841672.228297103</v>
       </c>
       <c r="H42">
-        <v>2122.857677666224</v>
+        <v>3986251.592234347</v>
       </c>
       <c r="I42">
-        <v>256.5650733813879</v>
+        <v>1116839.958651087</v>
       </c>
       <c r="J42">
-        <v>48.97804303605027</v>
+        <v>4841282.126336209</v>
       </c>
       <c r="K42">
-        <v>400.7709681199061</v>
+        <v>3984696.695218407</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1915,31 +1906,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>29.17217164088082</v>
+        <v>1116402.753170959</v>
       </c>
       <c r="G43">
-        <v>475.8149536851087</v>
+        <v>4841688.741125666</v>
       </c>
       <c r="H43">
-        <v>2132.894876046149</v>
+        <v>3986260.531943544</v>
       </c>
       <c r="I43">
-        <v>298.4918489058572</v>
+        <v>1116918.315867242</v>
       </c>
       <c r="J43">
-        <v>4.79903843354749</v>
+        <v>4841233.474698577</v>
       </c>
       <c r="K43">
-        <v>40.25065190095206</v>
+        <v>3984394.545503093</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1950,31 +1941,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>28.75257754754333</v>
+        <v>1116402.146204927</v>
       </c>
       <c r="G44">
-        <v>492.8423404981738</v>
+        <v>4841705.253954227</v>
       </c>
       <c r="H44">
-        <v>2142.641609793993</v>
+        <v>3986269.212948146</v>
       </c>
       <c r="I44">
-        <v>341.45103270569</v>
+        <v>1116998.602557757</v>
       </c>
       <c r="J44">
-        <v>-39.37996616895509</v>
+        <v>4841184.823060947</v>
       </c>
       <c r="K44">
-        <v>-338.3447662898034</v>
+        <v>3984077.247163224</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1985,31 +1976,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>28.35057878705074</v>
+        <v>1116401.564691516</v>
       </c>
       <c r="G45">
-        <v>509.8697273112389</v>
+        <v>4841721.766782789</v>
       </c>
       <c r="H45">
-        <v>2152.114218572068</v>
+        <v>3986277.649801201</v>
       </c>
       <c r="I45">
-        <v>385.4680468848695</v>
+        <v>1117080.866234163</v>
       </c>
       <c r="J45">
-        <v>-83.55897077145787</v>
+        <v>4841136.171423317</v>
       </c>
       <c r="K45">
-        <v>-735.0152864523625</v>
+        <v>3983744.800198799</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2020,31 +2011,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>27.96497931322406</v>
+        <v>1116401.006900579</v>
       </c>
       <c r="G46">
-        <v>526.8971141243042</v>
+        <v>4841738.279611351</v>
       </c>
       <c r="H46">
-        <v>2161.327700932187</v>
+        <v>3986285.855861287</v>
       </c>
       <c r="I46">
-        <v>430.568939543301</v>
+        <v>1117165.15557792</v>
       </c>
       <c r="J46">
-        <v>-127.7379753739606</v>
+        <v>4841087.519785686</v>
       </c>
       <c r="K46">
-        <v>-1149.760908586725</v>
+        <v>3983397.204609819</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2055,31 +2046,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>27.59469386676641</v>
+        <v>1116400.471262228</v>
       </c>
       <c r="G47">
-        <v>543.9245009373692</v>
+        <v>4841754.792439913</v>
       </c>
       <c r="H47">
-        <v>2170.295857181442</v>
+        <v>3986293.843419753</v>
       </c>
       <c r="I47">
-        <v>476.7804001913859</v>
+        <v>1117251.520469222</v>
       </c>
       <c r="J47">
-        <v>-171.9169799764634</v>
+        <v>4841038.868148056</v>
       </c>
       <c r="K47">
-        <v>-1582.58163269289</v>
+        <v>3983034.460396283</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2090,31 +2081,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>27.23873512399709</v>
+        <v>1116399.956348246</v>
       </c>
       <c r="G48">
-        <v>560.9518877504344</v>
+        <v>4841771.305268476</v>
       </c>
       <c r="H48">
-        <v>2179.031413716441</v>
+        <v>3986301.623811467</v>
       </c>
       <c r="I48">
-        <v>524.1297755441655</v>
+        <v>1117340.012016518</v>
       </c>
       <c r="J48">
-        <v>-216.0959845789658</v>
+        <v>4840990.216510426</v>
       </c>
       <c r="K48">
-        <v>-2033.477458770853</v>
+        <v>3982656.567558192</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2125,31 +2116,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>26.8962026214964</v>
+        <v>1116399.460856061</v>
       </c>
       <c r="G49">
-        <v>577.9792745634996</v>
+        <v>4841787.818097037</v>
       </c>
       <c r="H49">
-        <v>2187.546131637761</v>
+        <v>3986309.207511542</v>
       </c>
       <c r="I49">
-        <v>572.6450857043811</v>
+        <v>1117430.682586756</v>
       </c>
       <c r="J49">
-        <v>-260.2749891814686</v>
+        <v>4840941.564872796</v>
       </c>
       <c r="K49">
-        <v>-2502.448386820622</v>
+        <v>3982263.526095545</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2160,31 +2151,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>26.56627317378589</v>
+        <v>1116398.983594892</v>
       </c>
       <c r="G50">
-        <v>595.0066613765647</v>
+        <v>4841804.3309256</v>
       </c>
       <c r="H50">
-        <v>2195.850901970879</v>
+        <v>3986316.604220157</v>
       </c>
       <c r="I50">
-        <v>622.3550407440248</v>
+        <v>1117523.58583637</v>
       </c>
       <c r="J50">
-        <v>-304.4539937839713</v>
+        <v>4840892.913235165</v>
       </c>
       <c r="K50">
-        <v>-2989.494416842194</v>
+        <v>3981855.336008342</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2195,31 +2186,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>26.24819255190673</v>
+        <v>1116398.523473703</v>
       </c>
       <c r="G51">
-        <v>612.0340481896299</v>
+        <v>4841820.843754162</v>
       </c>
       <c r="H51">
-        <v>2203.955829427885</v>
+        <v>3986323.822937152</v>
       </c>
       <c r="I51">
-        <v>673.2890576941996</v>
+        <v>1117618.776743037</v>
       </c>
       <c r="J51">
-        <v>-348.6329983864741</v>
+        <v>4840844.261597535</v>
       </c>
       <c r="K51">
-        <v>-3494.615548835569</v>
+        <v>3981431.997296585</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2230,31 +2221,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>25.94126823142604</v>
+        <v>1116398.079490721</v>
       </c>
       <c r="G52">
-        <v>629.0614350026951</v>
+        <v>4841837.356582724</v>
       </c>
       <c r="H52">
-        <v>2211.870306326009</v>
+        <v>3986330.872027869</v>
       </c>
       <c r="I52">
-        <v>725.4772779533367</v>
+        <v>1117716.311638206</v>
       </c>
       <c r="J52">
-        <v>-392.8120029889769</v>
+        <v>4840795.609959905</v>
       </c>
       <c r="K52">
-        <v>-4017.811782800746</v>
+        <v>3980993.509960271</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2265,31 +2256,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>25.64486305117656</v>
+        <v>1116397.650724256</v>
       </c>
       <c r="G53">
-        <v>646.0888218157602</v>
+        <v>4841853.869411286</v>
       </c>
       <c r="H53">
-        <v>2219.603078019196</v>
+        <v>3986337.759281424</v>
       </c>
       <c r="I53">
-        <v>778.9505851240716</v>
+        <v>1117816.248240438</v>
       </c>
       <c r="J53">
-        <v>-436.9910075914793</v>
+        <v>4840746.958322274</v>
       </c>
       <c r="K53">
-        <v>-4559.083118737722</v>
+        <v>3980539.873999402</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2300,31 +2291,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>25.35838965059804</v>
+        <v>1116397.236324659</v>
       </c>
       <c r="G54">
-        <v>663.1162086288253</v>
+        <v>4841870.382239848</v>
       </c>
       <c r="H54">
-        <v>2227.162300985851</v>
+        <v>3986344.491962449</v>
       </c>
       <c r="I54">
-        <v>833.7406232893462</v>
+        <v>1117918.645689561</v>
       </c>
       <c r="J54">
-        <v>-481.1700121939821</v>
+        <v>4840698.306684644</v>
       </c>
       <c r="K54">
-        <v>-5118.429556646503</v>
+        <v>3980071.089413978</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2335,31 +2326,31 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>122.6381545028023</v>
+        <v>1116579.977774038</v>
       </c>
       <c r="G55">
-        <v>-113.729749972485</v>
+        <v>4841111.348270088</v>
       </c>
       <c r="H55">
-        <v>539.4760323953817</v>
+        <v>3985231.549292268</v>
       </c>
       <c r="I55">
-        <v>-1760.980892445621</v>
+        <v>1114859.954865143</v>
       </c>
       <c r="J55">
-        <v>2177.153947968381</v>
+        <v>4843226.460371665</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984369.492516276</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2370,31 +2361,31 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>122.6381545028023</v>
+        <v>1116579.977774038</v>
       </c>
       <c r="G56">
-        <v>-113.729749972485</v>
+        <v>4841111.348270088</v>
       </c>
       <c r="H56">
-        <v>539.4760323953817</v>
+        <v>3985231.549292268</v>
       </c>
       <c r="I56">
-        <v>-1726.214440599208</v>
+        <v>1114889.568824351</v>
       </c>
       <c r="J56">
-        <v>2124.19294926768</v>
+        <v>4843177.808751428</v>
       </c>
       <c r="K56">
-        <v>244.5340992816527</v>
+        <v>3984673.28844507</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2405,31 +2396,31 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>122.6381545028023</v>
+        <v>1116579.977774038</v>
       </c>
       <c r="G57">
-        <v>-113.729749972485</v>
+        <v>4841111.348270088</v>
       </c>
       <c r="H57">
-        <v>539.4760323953817</v>
+        <v>3985231.549292268</v>
       </c>
       <c r="I57">
-        <v>-1690.591896860627</v>
+        <v>1114919.91200006</v>
       </c>
       <c r="J57">
-        <v>2071.231950566978</v>
+        <v>4843129.15713119</v>
       </c>
       <c r="K57">
-        <v>476.8746074690515</v>
+        <v>3984961.935716304</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2440,31 +2431,31 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>122.6381545028023</v>
+        <v>1116579.977774038</v>
       </c>
       <c r="G58">
-        <v>-113.729749972485</v>
+        <v>4841111.348270088</v>
       </c>
       <c r="H58">
-        <v>539.4760323953817</v>
+        <v>3985231.549292268</v>
       </c>
       <c r="I58">
-        <v>-1654.092180754622</v>
+        <v>1114951.002348555</v>
       </c>
       <c r="J58">
-        <v>2018.270951866277</v>
+        <v>4843080.505510953</v>
       </c>
       <c r="K58">
-        <v>697.0215245621979</v>
+        <v>3985235.434329977</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2475,31 +2466,31 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>122.6381545028023</v>
+        <v>1116579.977774038</v>
       </c>
       <c r="G59">
-        <v>-113.729749972485</v>
+        <v>4841111.348270088</v>
       </c>
       <c r="H59">
-        <v>539.4760323953817</v>
+        <v>3985231.549292268</v>
       </c>
       <c r="I59">
-        <v>-1616.693692718631</v>
+        <v>1114982.85826828</v>
       </c>
       <c r="J59">
-        <v>1965.309953165576</v>
+        <v>4843031.853890716</v>
       </c>
       <c r="K59">
-        <v>904.9748505610905</v>
+        <v>3985493.784286091</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2510,31 +2501,31 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>122.6381545028023</v>
+        <v>1116579.977774038</v>
       </c>
       <c r="G60">
-        <v>-113.729749972485</v>
+        <v>4841111.348270088</v>
       </c>
       <c r="H60">
-        <v>539.4760323953817</v>
+        <v>3985231.549292268</v>
       </c>
       <c r="I60">
-        <v>-1578.37430132073</v>
+        <v>1115015.498610721</v>
       </c>
       <c r="J60">
-        <v>1912.348954464874</v>
+        <v>4842983.20227048</v>
       </c>
       <c r="K60">
-        <v>1100.734585465731</v>
+        <v>3985736.985584644</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2545,31 +2536,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>122.6381545028023</v>
+        <v>1116579.977774038</v>
       </c>
       <c r="G61">
-        <v>-113.729749972485</v>
+        <v>4841111.348270088</v>
       </c>
       <c r="H61">
-        <v>539.4760323953817</v>
+        <v>3985231.549292268</v>
       </c>
       <c r="I61">
-        <v>-1539.11133016285</v>
+        <v>1115048.942691566</v>
       </c>
       <c r="J61">
-        <v>1859.387955764173</v>
+        <v>4842934.550650242</v>
       </c>
       <c r="K61">
-        <v>1284.300729276118</v>
+        <v>3985965.038225636</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2580,31 +2571,31 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>122.6381545028023</v>
+        <v>1116579.977774038</v>
       </c>
       <c r="G62">
-        <v>-113.729749972485</v>
+        <v>4841111.348270088</v>
       </c>
       <c r="H62">
-        <v>539.4760323953817</v>
+        <v>3985231.549292268</v>
       </c>
       <c r="I62">
-        <v>-1498.881544461479</v>
+        <v>1115083.210302134</v>
       </c>
       <c r="J62">
-        <v>1806.426957063472</v>
+        <v>4842885.899030005</v>
       </c>
       <c r="K62">
-        <v>1455.673281992253</v>
+        <v>3986177.942209069</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2615,31 +2606,31 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>122.6381545028023</v>
+        <v>1116579.977774038</v>
       </c>
       <c r="G63">
-        <v>-94.94976697017668</v>
+        <v>4841127.861044223</v>
       </c>
       <c r="H63">
-        <v>539.4760323953817</v>
+        <v>3985231.549292268</v>
       </c>
       <c r="I63">
-        <v>-1457.661137297936</v>
+        <v>1115118.321721086</v>
       </c>
       <c r="J63">
-        <v>1753.46595836277</v>
+        <v>4842837.247409767</v>
       </c>
       <c r="K63">
-        <v>1614.852243614133</v>
+        <v>3986375.697534941</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2650,31 +2641,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>95.1815144269748</v>
+        <v>1116531.297146008</v>
       </c>
       <c r="G64">
-        <v>-76.16978396786834</v>
+        <v>4841144.373818357</v>
       </c>
       <c r="H64">
-        <v>664.6308417467768</v>
+        <v>3985430.803860084</v>
       </c>
       <c r="I64">
-        <v>-1415.425715530069</v>
+        <v>1115154.297726428</v>
       </c>
       <c r="J64">
-        <v>1700.504959662069</v>
+        <v>4842788.59578953</v>
       </c>
       <c r="K64">
-        <v>1761.83761414176</v>
+        <v>3986558.304203254</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2685,31 +2676,31 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>79.05211575617736</v>
+        <v>1116502.699719124</v>
       </c>
       <c r="G65">
-        <v>-57.38980096556001</v>
+        <v>4841160.886592492</v>
       </c>
       <c r="H65">
-        <v>739.1794468564138</v>
+        <v>3985549.49007094</v>
       </c>
       <c r="I65">
-        <v>-1372.150285357045</v>
+        <v>1115191.159607804</v>
       </c>
       <c r="J65">
-        <v>1647.543960961368</v>
+        <v>4842739.944169293</v>
       </c>
       <c r="K65">
-        <v>1896.629393575136</v>
+        <v>3986725.762214006</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2720,31 +2711,31 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>68.87005600261354</v>
+        <v>1116484.646925262</v>
       </c>
       <c r="G66">
-        <v>-38.60981796325167</v>
+        <v>4841177.399366627</v>
       </c>
       <c r="H66">
-        <v>792.454296380672</v>
+        <v>3985634.307084145</v>
       </c>
       <c r="I66">
-        <v>-1327.809237528674</v>
+        <v>1115228.929179098</v>
       </c>
       <c r="J66">
-        <v>1594.582962260667</v>
+        <v>4842691.292549056</v>
       </c>
       <c r="K66">
-        <v>2019.227581914258</v>
+        <v>3986878.071567197</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2755,31 +2746,31 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>61.76912886188516</v>
+        <v>1116472.056980103</v>
       </c>
       <c r="G67">
-        <v>-19.82983496094333</v>
+        <v>4841193.912140762</v>
       </c>
       <c r="H67">
-        <v>833.9393931631903</v>
+        <v>3985700.354046886</v>
       </c>
       <c r="I67">
-        <v>-1282.376332190547</v>
+        <v>1115267.628791336</v>
       </c>
       <c r="J67">
-        <v>1541.621963559965</v>
+        <v>4842642.640928819</v>
       </c>
       <c r="K67">
-        <v>2129.632179159127</v>
+        <v>3987015.232262829</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2790,31 +2781,31 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>56.47162456639649</v>
+        <v>1116462.664503988</v>
       </c>
       <c r="G68">
-        <v>-1.049851958635009</v>
+        <v>4841210.424914896</v>
       </c>
       <c r="H68">
-        <v>867.918905305494</v>
+        <v>3985754.451632442</v>
       </c>
       <c r="I68">
-        <v>-1235.824683355975</v>
+        <v>1115307.281345923</v>
       </c>
       <c r="J68">
-        <v>1488.660964859264</v>
+        <v>4842593.989308582</v>
       </c>
       <c r="K68">
-        <v>2227.843185309742</v>
+        <v>3987137.2443009</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2825,31 +2816,31 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>52.32971598186726</v>
+        <v>1116455.320899287</v>
       </c>
       <c r="G69">
-        <v>17.73013104367333</v>
+        <v>4841226.937689031</v>
       </c>
       <c r="H69">
-        <v>896.6970717058575</v>
+        <v>3985800.268338474</v>
       </c>
       <c r="I69">
-        <v>-1188.126742995583</v>
+        <v>1115347.910308187</v>
       </c>
       <c r="J69">
-        <v>1435.699966158563</v>
+        <v>4842545.337688344</v>
       </c>
       <c r="K69">
-        <v>2313.860600366105</v>
+        <v>3987244.107681412</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2860,31 +2851,31 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>48.97861035473019</v>
+        <v>1116449.379388379</v>
       </c>
       <c r="G70">
-        <v>36.51011404598167</v>
+        <v>4841243.450463166</v>
       </c>
       <c r="H70">
-        <v>921.6568897729654</v>
+        <v>3985840.005986492</v>
       </c>
       <c r="I70">
-        <v>-1139.254284735117</v>
+        <v>1115389.539721269</v>
       </c>
       <c r="J70">
-        <v>1382.738967457861</v>
+        <v>4842496.686068107</v>
       </c>
       <c r="K70">
-        <v>2387.684424328214</v>
+        <v>3987335.822404362</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2895,31 +2886,31 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>46.19599861837855</v>
+        <v>1116444.445817245</v>
       </c>
       <c r="G71">
-        <v>55.29009704828999</v>
+        <v>4841259.963237301</v>
       </c>
       <c r="H71">
-        <v>943.6939392599108</v>
+        <v>3985875.090397504</v>
       </c>
       <c r="I71">
-        <v>-1089.178387151824</v>
+        <v>1115432.19422035</v>
       </c>
       <c r="J71">
-        <v>1329.77796875716</v>
+        <v>4842448.03444787</v>
       </c>
       <c r="K71">
-        <v>2449.314657196071</v>
+        <v>3987412.388469753</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2930,31 +2921,31 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>43.8379445373399</v>
+        <v>1116440.264986915</v>
       </c>
       <c r="G72">
-        <v>74.07008005059835</v>
+        <v>4841276.476011435</v>
       </c>
       <c r="H72">
-        <v>963.4215330414863</v>
+        <v>3985906.498005357</v>
       </c>
       <c r="I72">
-        <v>-1037.869416659524</v>
+        <v>1115475.899047229</v>
       </c>
       <c r="J72">
-        <v>1276.816970056459</v>
+        <v>4842399.382827633</v>
       </c>
       <c r="K72">
-        <v>2498.751298969675</v>
+        <v>3987473.805877584</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2965,31 +2956,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>41.80671099914498</v>
+        <v>1116436.663609469</v>
       </c>
       <c r="G73">
-        <v>92.85006305290668</v>
+        <v>4841292.98878557</v>
       </c>
       <c r="H73">
-        <v>981.2781385999409</v>
+        <v>3985934.926878699</v>
       </c>
       <c r="I73">
-        <v>-985.2970099722373</v>
+        <v>1115520.680065262</v>
       </c>
       <c r="J73">
-        <v>1223.855971355758</v>
+        <v>4842350.731207395</v>
       </c>
       <c r="K73">
-        <v>2535.994349649025</v>
+        <v>3987520.074627854</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3000,31 +2991,31 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>40.03333916294095</v>
+        <v>1116433.519420869</v>
       </c>
       <c r="G74">
-        <v>111.630046055215</v>
+        <v>4841309.501559705</v>
       </c>
       <c r="H74">
-        <v>997.5881088719906</v>
+        <v>3985960.893408427</v>
       </c>
       <c r="I74">
-        <v>-931.4300561360043</v>
+        <v>1115566.563774667</v>
       </c>
       <c r="J74">
-        <v>1170.894972655056</v>
+        <v>4842302.079587158</v>
       </c>
       <c r="K74">
-        <v>2561.043809234122</v>
+        <v>3987551.194720564</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3035,31 +3026,31 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>38.46761944111768</v>
+        <v>1116430.743399508</v>
       </c>
       <c r="G75">
-        <v>130.4100290575234</v>
+        <v>4841326.01433384</v>
       </c>
       <c r="H75">
-        <v>1012.598139269836</v>
+        <v>3985984.790349626</v>
       </c>
       <c r="I75">
-        <v>-876.2366781182424</v>
+        <v>1115613.577328203</v>
       </c>
       <c r="J75">
-        <v>1117.933973954355</v>
+        <v>4842253.427966922</v>
       </c>
       <c r="K75">
-        <v>2573.899677724967</v>
+        <v>3987567.166155715</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3070,31 +3061,31 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>37.07201998366774</v>
+        <v>1116428.269001406</v>
       </c>
       <c r="G76">
-        <v>149.1900120598317</v>
+        <v>4841342.527107975</v>
       </c>
       <c r="H76">
-        <v>1026.500236453352</v>
+        <v>3986006.923389342</v>
       </c>
       <c r="I76">
-        <v>-819.6842139437698</v>
+        <v>1115661.748547244</v>
       </c>
       <c r="J76">
-        <v>1064.972975253654</v>
+        <v>4842204.776346684</v>
       </c>
       <c r="K76">
-        <v>2574.561955121558</v>
+        <v>3987567.988933304</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3105,31 +3096,31 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>35.8178534655232</v>
+        <v>1116426.045363933</v>
       </c>
       <c r="G77">
-        <v>167.96999506214</v>
+        <v>4841359.03988211</v>
       </c>
       <c r="H77">
-        <v>1039.446776843159</v>
+        <v>3986027.535120713</v>
       </c>
       <c r="I77">
-        <v>-761.7391973663142</v>
+        <v>1115711.105938236</v>
       </c>
       <c r="J77">
-        <v>1012.011976552952</v>
+        <v>4842156.124726446</v>
       </c>
       <c r="K77">
-        <v>2563.030641423896</v>
+        <v>3987553.663053333</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3140,31 +3131,31 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>34.68276951279024</v>
+        <v>1116424.032859871</v>
       </c>
       <c r="G78">
-        <v>186.7499780644484</v>
+        <v>4841375.552656244</v>
       </c>
       <c r="H78">
-        <v>1051.5607143344</v>
+        <v>3986046.821294308</v>
       </c>
       <c r="I78">
-        <v>-702.3673380640759</v>
+        <v>1115761.678709574</v>
       </c>
       <c r="J78">
-        <v>959.0509778522512</v>
+        <v>4842107.473106209</v>
       </c>
       <c r="K78">
-        <v>2539.305736631982</v>
+        <v>3987524.188515803</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3175,31 +3166,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>33.6490636292572</v>
+        <v>1116422.200099145</v>
       </c>
       <c r="G79">
-        <v>205.5299610667567</v>
+        <v>4841392.065430379</v>
       </c>
       <c r="H79">
-        <v>1062.942699354752</v>
+        <v>3986064.94215213</v>
       </c>
       <c r="I79">
-        <v>-641.5335013476293</v>
+        <v>1115813.49678888</v>
       </c>
       <c r="J79">
-        <v>906.0899791515499</v>
+        <v>4842058.821485973</v>
       </c>
       <c r="K79">
-        <v>2503.387240745814</v>
+        <v>3987479.565320712</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3210,31 +3201,31 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>32.7025062906461</v>
+        <v>1116420.521852805</v>
       </c>
       <c r="G80">
-        <v>224.309944069065</v>
+        <v>4841408.578204513</v>
       </c>
       <c r="H80">
-        <v>1073.676167036384</v>
+        <v>3986082.030528319</v>
       </c>
       <c r="I80">
-        <v>-579.2016873681439</v>
+        <v>1115866.590840718</v>
       </c>
       <c r="J80">
-        <v>853.1289804508485</v>
+        <v>4842010.169865735</v>
       </c>
       <c r="K80">
-        <v>2455.275153765393</v>
+        <v>3987419.793468061</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3245,31 +3236,31 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>31.83151329261774</v>
+        <v>1116418.977582055</v>
       </c>
       <c r="G81">
-        <v>243.0899270713734</v>
+        <v>4841425.090978648</v>
       </c>
       <c r="H81">
-        <v>1083.831052366848</v>
+        <v>3986098.197763907</v>
       </c>
       <c r="I81">
-        <v>-515.3350098136312</v>
+        <v>1115920.992284736</v>
       </c>
       <c r="J81">
-        <v>800.1679817501474</v>
+        <v>4841961.518245498</v>
       </c>
       <c r="K81">
-        <v>2394.969475690719</v>
+        <v>3987344.872957849</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3280,31 +3271,31 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>31.02654581861217</v>
+        <v>1116417.550374572</v>
       </c>
       <c r="G82">
-        <v>261.8699100736817</v>
+        <v>4841441.603752783</v>
       </c>
       <c r="H82">
-        <v>1093.46655424861</v>
+        <v>3986113.538107384</v>
       </c>
       <c r="I82">
-        <v>-449.895674080604</v>
+        <v>1115976.733314264</v>
       </c>
       <c r="J82">
-        <v>747.206983049446</v>
+        <v>4841912.866625261</v>
       </c>
       <c r="K82">
-        <v>2322.470206521792</v>
+        <v>3987254.803790078</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3315,31 +3306,31 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>30.27966871120299</v>
+        <v>1116416.22616132</v>
       </c>
       <c r="G83">
-        <v>280.64989307599</v>
+        <v>4841458.116526917</v>
       </c>
       <c r="H83">
-        <v>1102.633226469845</v>
+        <v>3986128.132043655</v>
       </c>
       <c r="I83">
-        <v>-382.8449549082362</v>
+        <v>1116033.846915364</v>
       </c>
       <c r="J83">
-        <v>694.2459843487446</v>
+        <v>4841864.215005023</v>
       </c>
       <c r="K83">
-        <v>2237.777346258612</v>
+        <v>3987149.585964747</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3350,31 +3341,31 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>29.58421992964641</v>
+        <v>1116414.993130499</v>
       </c>
       <c r="G84">
-        <v>299.4298760782984</v>
+        <v>4841474.629301052</v>
       </c>
       <c r="H84">
-        <v>1111.374583173855</v>
+        <v>3986142.048850058</v>
       </c>
       <c r="I84">
-        <v>-314.1431734617794</v>
+        <v>1116092.366886348</v>
       </c>
       <c r="J84">
-        <v>641.2849856480435</v>
+        <v>4841815.563384786</v>
       </c>
       <c r="K84">
-        <v>2140.890894901179</v>
+        <v>3987029.219481855</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3385,31 +3376,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>28.93455958501459</v>
+        <v>1116413.841282586</v>
       </c>
       <c r="G85">
-        <v>318.2098590806067</v>
+        <v>4841491.142075187</v>
       </c>
       <c r="H85">
-        <v>1119.728348119114</v>
+        <v>3986155.348585261</v>
       </c>
       <c r="I85">
-        <v>-243.7496738516838</v>
+        <v>1116152.327857779</v>
       </c>
       <c r="J85">
-        <v>588.3239869473421</v>
+        <v>4841766.911764549</v>
       </c>
       <c r="K85">
-        <v>2031.810852449493</v>
+        <v>3986893.704341403</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3420,31 +3411,31 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>28.32587687264355</v>
+        <v>1116412.762088022</v>
       </c>
       <c r="G86">
-        <v>336.989842082915</v>
+        <v>4841507.654849321</v>
       </c>
       <c r="H86">
-        <v>1127.727438553509</v>
+        <v>3986168.083655657</v>
       </c>
       <c r="I86">
-        <v>-171.6227990745213</v>
+        <v>1116213.765312969</v>
       </c>
       <c r="J86">
-        <v>535.362988246641</v>
+        <v>4841718.260144312</v>
       </c>
       <c r="K86">
-        <v>1910.537218903554</v>
+        <v>3986743.04054339</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3455,31 +3446,31 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>27.75403975947615</v>
+        <v>1116411.748220712</v>
       </c>
       <c r="G87">
-        <v>355.7698250852234</v>
+        <v>4841524.167623456</v>
       </c>
       <c r="H87">
-        <v>1135.400748607025</v>
+        <v>3986180.300062572</v>
       </c>
       <c r="I87">
-        <v>-97.71986636147908</v>
+        <v>1116276.715608972</v>
       </c>
       <c r="J87">
-        <v>482.4019895459396</v>
+        <v>4841669.608524075</v>
       </c>
       <c r="K87">
-        <v>1777.069994263362</v>
+        <v>3986577.228087818</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3490,31 +3481,31 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>27.21547667471551</v>
+        <v>1116410.793348262</v>
       </c>
       <c r="G88">
-        <v>374.5498080875317</v>
+        <v>4841540.68039759</v>
       </c>
       <c r="H88">
-        <v>1142.773779311215</v>
+        <v>3986192.038405302</v>
       </c>
       <c r="I88">
-        <v>-21.99714191982997</v>
+        <v>1116341.215998101</v>
       </c>
       <c r="J88">
-        <v>429.4409908452382</v>
+        <v>4841620.956903837</v>
       </c>
       <c r="K88">
-        <v>1631.409178528916</v>
+        <v>3986396.266974685</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3525,31 +3516,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>26.70708245438069</v>
+        <v>1116409.891965213</v>
       </c>
       <c r="G89">
-        <v>393.3297910898401</v>
+        <v>4841557.193171725</v>
       </c>
       <c r="H89">
-        <v>1149.869149924818</v>
+        <v>3986203.334695172</v>
       </c>
       <c r="I89">
-        <v>55.59018494756586</v>
+        <v>1116407.304649972</v>
       </c>
       <c r="J89">
-        <v>376.4799921445371</v>
+        <v>4841572.3052836</v>
       </c>
       <c r="K89">
-        <v>1473.554771700218</v>
+        <v>3986200.157203992</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3560,31 +3551,31 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>26.22614287693741</v>
+        <v>1116409.039259252</v>
       </c>
       <c r="G90">
-        <v>412.1097740921484</v>
+        <v>4841573.705945861</v>
       </c>
       <c r="H90">
-        <v>1156.707016427884</v>
+        <v>3986214.22102181</v>
       </c>
       <c r="I90">
-        <v>135.0880283600393</v>
+        <v>1116475.020674095</v>
       </c>
       <c r="J90">
-        <v>323.5189934438357</v>
+        <v>4841523.653663363</v>
       </c>
       <c r="K90">
-        <v>1303.506773777267</v>
+        <v>3985988.898775739</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3595,31 +3586,31 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>25.7702735993102</v>
+        <v>1116408.231002937</v>
       </c>
       <c r="G91">
-        <v>430.8897570944567</v>
+        <v>4841590.218719995</v>
       </c>
       <c r="H91">
-        <v>1163.305416702126</v>
+        <v>3986224.726102691</v>
       </c>
       <c r="I91">
-        <v>216.5434330298708</v>
+        <v>1116544.404143015</v>
       </c>
       <c r="J91">
-        <v>270.5579947431345</v>
+        <v>4841475.002043126</v>
       </c>
       <c r="K91">
-        <v>1121.265184760063</v>
+        <v>3985762.491689926</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3630,31 +3621,31 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>25.33737035566609</v>
+        <v>1116407.463465404</v>
       </c>
       <c r="G92">
-        <v>449.6697400967651</v>
+        <v>4841606.73149413</v>
       </c>
       <c r="H92">
-        <v>1169.680557289326</v>
+        <v>3986234.875739681</v>
       </c>
       <c r="I92">
-        <v>300.0046021020977</v>
+        <v>1116615.496116026</v>
       </c>
       <c r="J92">
-        <v>217.5969960424332</v>
+        <v>4841426.350422888</v>
       </c>
       <c r="K92">
-        <v>926.8300046486047</v>
+        <v>3985520.935946552</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3665,31 +3656,31 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>24.92556804434347</v>
+        <v>1116406.733339828</v>
       </c>
       <c r="G93">
-        <v>468.4497230990734</v>
+        <v>4841623.244268265</v>
       </c>
       <c r="H93">
-        <v>1175.847053205866</v>
+        <v>3986244.693200833</v>
       </c>
       <c r="I93">
-        <v>385.5209256798615</v>
+        <v>1116688.338663468</v>
       </c>
       <c r="J93">
-        <v>164.6359973417318</v>
+        <v>4841377.698802651</v>
       </c>
       <c r="K93">
-        <v>720.2012334428941</v>
+        <v>3985264.231545618</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3700,31 +3691,31 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>24.53320688767159</v>
+        <v>1116406.037683424</v>
       </c>
       <c r="G94">
-        <v>487.2297061013817</v>
+        <v>4841639.757042399</v>
       </c>
       <c r="H94">
-        <v>1181.818129743717</v>
+        <v>3986254.199541669</v>
       </c>
       <c r="I94">
-        <v>473.1430100521512</v>
+        <v>1116762.974891627</v>
       </c>
       <c r="J94">
-        <v>111.6749986410307</v>
+        <v>4841329.047182415</v>
       </c>
       <c r="K94">
-        <v>501.3788711429309</v>
+        <v>3984992.378487125</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3735,31 +3726,31 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>24.15880426405335</v>
+        <v>1116405.373867501</v>
       </c>
       <c r="G95">
-        <v>506.0096891036901</v>
+        <v>4841656.269816534</v>
       </c>
       <c r="H95">
-        <v>1187.605793266976</v>
+        <v>3986263.413877098</v>
       </c>
       <c r="I95">
-        <v>562.922707641271</v>
+        <v>1116839.448968241</v>
       </c>
       <c r="J95">
-        <v>58.71399994032927</v>
+        <v>4841280.395562178</v>
       </c>
       <c r="K95">
-        <v>270.362917748714</v>
+        <v>3984705.37677107</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3770,31 +3761,31 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>23.80103112217351</v>
+        <v>1116404.739535653</v>
       </c>
       <c r="G96">
-        <v>524.7896721059984</v>
+        <v>4841672.782590669</v>
       </c>
       <c r="H96">
-        <v>1193.220976550141</v>
+        <v>3986272.353612808</v>
       </c>
       <c r="I96">
-        <v>654.9131476877147</v>
+        <v>1116917.806148636</v>
       </c>
       <c r="J96">
-        <v>5.753001239627887</v>
+        <v>4841231.743941939</v>
       </c>
       <c r="K96">
-        <v>27.15337326024415</v>
+        <v>3984403.226397456</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3805,31 +3796,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>23.4586921219391</v>
+        <v>1116404.132568541</v>
       </c>
       <c r="G97">
-        <v>543.5696551083067</v>
+        <v>4841689.295364803</v>
       </c>
       <c r="H97">
-        <v>1198.67366308026</v>
+        <v>3986281.034643154</v>
       </c>
       <c r="I97">
-        <v>749.1687676906485</v>
+        <v>1116998.092802511</v>
       </c>
       <c r="J97">
-        <v>-47.20799746107325</v>
+        <v>4841183.092321702</v>
       </c>
       <c r="K97">
-        <v>-228.249762322478</v>
+        <v>3984085.927366281</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3840,31 +3831,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>23.13070882582579</v>
+        <v>1116403.551054096</v>
       </c>
       <c r="G98">
-        <v>562.349638110615</v>
+        <v>4841705.808138938</v>
       </c>
       <c r="H98">
-        <v>1203.972993874098</v>
+        <v>3986289.471521229</v>
       </c>
       <c r="I98">
-        <v>845.7453456225745</v>
+        <v>1117080.356441376</v>
       </c>
       <c r="J98">
-        <v>-100.1689961617746</v>
+        <v>4841134.440701466</v>
       </c>
       <c r="K98">
-        <v>-495.8464889994539</v>
+        <v>3983753.479677547</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3875,31 +3866,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>22.81610540204841</v>
+        <v>1116402.993262166</v>
       </c>
       <c r="G99">
-        <v>581.1296211129235</v>
+        <v>4841722.320913072</v>
       </c>
       <c r="H99">
-        <v>1209.127359681169</v>
+        <v>3986297.67760565</v>
       </c>
       <c r="I99">
-        <v>944.7000329372523</v>
+        <v>1117164.645746666</v>
       </c>
       <c r="J99">
-        <v>-153.129994862476</v>
+        <v>4841085.789081228</v>
       </c>
       <c r="K99">
-        <v>-775.6368067706835</v>
+        <v>3983405.883331251</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3910,31 +3901,31 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>22.51399640777402</v>
+        <v>1116402.457622862</v>
       </c>
       <c r="G100">
-        <v>599.9096041152318</v>
+        <v>4841738.833687207</v>
       </c>
       <c r="H100">
-        <v>1214.144480908178</v>
+        <v>3986305.665187805</v>
       </c>
       <c r="I100">
-        <v>1046.091388390411</v>
+        <v>1117251.010598555</v>
       </c>
       <c r="J100">
-        <v>-206.0909935631774</v>
+        <v>4841037.137460991</v>
       </c>
       <c r="K100">
-        <v>-1067.620715636166</v>
+        <v>3983043.138327396</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3945,31 +3936,31 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>22.22357630401357</v>
+        <v>1116401.942707964</v>
       </c>
       <c r="G101">
-        <v>618.68958711754</v>
+        <v>4841755.346461342</v>
       </c>
       <c r="H101">
-        <v>1219.031477176238</v>
+        <v>3986313.445602592</v>
       </c>
       <c r="I101">
-        <v>1149.979412693266</v>
+        <v>1117339.502105467</v>
       </c>
       <c r="J101">
-        <v>-259.0519922638783</v>
+        <v>4840988.485840754</v>
       </c>
       <c r="K101">
-        <v>-1371.798215595899</v>
+        <v>3982665.244665981</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3980,31 +3971,31 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>21.94411041944603</v>
+        <v>1116401.447214897</v>
       </c>
       <c r="G102">
-        <v>637.4695701198484</v>
+        <v>4841771.859235476</v>
       </c>
       <c r="H102">
-        <v>1223.794928083842</v>
+        <v>3986321.029325158</v>
       </c>
       <c r="I102">
-        <v>1256.425584019351</v>
+        <v>1117430.172634326</v>
       </c>
       <c r="J102">
-        <v>-312.0129909645797</v>
+        <v>4840939.834220516</v>
       </c>
       <c r="K102">
-        <v>-1688.169306649887</v>
+        <v>3982272.202347006</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4015,31 +4006,31 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>21.67492713238231</v>
+        <v>1116400.969952879</v>
       </c>
       <c r="G103">
-        <v>656.2495531221567</v>
+        <v>4841788.372009611</v>
       </c>
       <c r="H103">
-        <v>1228.44092647701</v>
+        <v>3986328.426055709</v>
       </c>
       <c r="I103">
-        <v>1365.492894385657</v>
+        <v>1117523.075841542</v>
       </c>
       <c r="J103">
-        <v>-364.973989665281</v>
+        <v>4840891.182600279</v>
       </c>
       <c r="K103">
-        <v>-2016.733988798129</v>
+        <v>3981864.01137047</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4050,31 +4041,31 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>21.41541108147243</v>
+        <v>1116400.509830872</v>
       </c>
       <c r="G104">
-        <v>675.029536124465</v>
+        <v>4841804.884783746</v>
       </c>
       <c r="H104">
-        <v>1232.975125308715</v>
+        <v>3986335.644794112</v>
       </c>
       <c r="I104">
-        <v>1477.245886929649</v>
+        <v>1117618.266704768</v>
       </c>
       <c r="J104">
-        <v>-417.9349883659824</v>
+        <v>4840842.530980042</v>
       </c>
       <c r="K104">
-        <v>-2357.492262040623</v>
+        <v>3981440.671736374</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4085,31 +4076,31 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>21.16499724893912</v>
+        <v>1116400.065847099</v>
       </c>
       <c r="G105">
-        <v>693.8095191267735</v>
+        <v>4841821.39755788</v>
       </c>
       <c r="H105">
-        <v>1237.402778991661</v>
+        <v>3986342.693905733</v>
       </c>
       <c r="I105">
-        <v>1591.750694104169</v>
+        <v>1117715.801555426</v>
       </c>
       <c r="J105">
-        <v>-470.8959870666838</v>
+        <v>4840793.879359805</v>
       </c>
       <c r="K105">
-        <v>-2710.44412637737</v>
+        <v>3981002.183444717</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4120,31 +4111,31 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>20.92316578686157</v>
+        <v>1116399.637079871</v>
       </c>
       <c r="G106">
-        <v>712.5895021290818</v>
+        <v>4841837.910332016</v>
       </c>
       <c r="H106">
-        <v>1241.728780003154</v>
+        <v>3986349.581179712</v>
       </c>
       <c r="I106">
-        <v>1709.075076812868</v>
+        <v>1117815.738112051</v>
       </c>
       <c r="J106">
-        <v>-523.8569857673847</v>
+        <v>4840745.227739568</v>
       </c>
       <c r="K106">
-        <v>-3075.589581808368</v>
+        <v>3980548.546495501</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4155,1886 +4146,31 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>20.68943747870609</v>
+        <v>1116399.222679537</v>
       </c>
       <c r="G107">
-        <v>731.3694851313901</v>
+        <v>4841854.423106151</v>
       </c>
       <c r="H107">
-        <v>1245.95769138155</v>
+        <v>3986356.313880705</v>
       </c>
       <c r="I107">
-        <v>1829.288464509318</v>
+        <v>1117918.135514443</v>
       </c>
       <c r="J107">
-        <v>-576.817984468086</v>
+        <v>4840696.57611933</v>
       </c>
       <c r="K107">
-        <v>-3452.928628333622</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108">
-        <v>41</v>
-      </c>
-      <c r="B108" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" t="s">
-        <v>16</v>
-      </c>
-      <c r="D108" t="s">
-        <v>19</v>
-      </c>
-      <c r="E108">
-        <v>152.142</v>
-      </c>
-      <c r="F108">
-        <v>256.0723026899452</v>
-      </c>
-      <c r="G108">
-        <v>-56.4498746295908</v>
-      </c>
-      <c r="H108">
-        <v>1248.867909105114</v>
-      </c>
-      <c r="I108">
-        <v>-1666.618207148589</v>
-      </c>
-      <c r="J108">
-        <v>3643.90365231012</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109">
-        <v>41</v>
-      </c>
-      <c r="B109" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" t="s">
-        <v>19</v>
-      </c>
-      <c r="E109">
-        <v>153.142</v>
-      </c>
-      <c r="F109">
-        <v>256.0723026899452</v>
-      </c>
-      <c r="G109">
-        <v>-56.4498746295908</v>
-      </c>
-      <c r="H109">
-        <v>1248.867909105114</v>
-      </c>
-      <c r="I109">
-        <v>-1633.714725972984</v>
-      </c>
-      <c r="J109">
-        <v>3555.262802279482</v>
-      </c>
-      <c r="K109">
-        <v>285.926261152566</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110">
-        <v>41</v>
-      </c>
-      <c r="B110" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110">
-        <v>154.142</v>
-      </c>
-      <c r="F110">
-        <v>256.0723026899452</v>
-      </c>
-      <c r="G110">
-        <v>-56.4498746295908</v>
-      </c>
-      <c r="H110">
-        <v>1248.867909105114</v>
-      </c>
-      <c r="I110">
-        <v>-1600.001026844076</v>
-      </c>
-      <c r="J110">
-        <v>3466.621952248845</v>
-      </c>
-      <c r="K110">
-        <v>557.5949282851357</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111">
-        <v>41</v>
-      </c>
-      <c r="B111" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111" t="s">
-        <v>19</v>
-      </c>
-      <c r="E111">
-        <v>155.142</v>
-      </c>
-      <c r="F111">
-        <v>256.0723026899452</v>
-      </c>
-      <c r="G111">
-        <v>-56.4498746295908</v>
-      </c>
-      <c r="H111">
-        <v>1248.867909105114</v>
-      </c>
-      <c r="I111">
-        <v>-1565.457158890154</v>
-      </c>
-      <c r="J111">
-        <v>3377.981102218206</v>
-      </c>
-      <c r="K111">
-        <v>815.0060013977111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112">
-        <v>41</v>
-      </c>
-      <c r="B112" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" t="s">
-        <v>16</v>
-      </c>
-      <c r="D112" t="s">
-        <v>19</v>
-      </c>
-      <c r="E112">
-        <v>156.142</v>
-      </c>
-      <c r="F112">
-        <v>256.0723026899452</v>
-      </c>
-      <c r="G112">
-        <v>-56.4498746295908</v>
-      </c>
-      <c r="H112">
-        <v>1248.867909105114</v>
-      </c>
-      <c r="I112">
-        <v>-1530.062679967642</v>
-      </c>
-      <c r="J112">
-        <v>3289.340252187568</v>
-      </c>
-      <c r="K112">
-        <v>1058.15948049029</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113">
-        <v>41</v>
-      </c>
-      <c r="B113" t="s">
-        <v>13</v>
-      </c>
-      <c r="C113" t="s">
-        <v>16</v>
-      </c>
-      <c r="D113" t="s">
-        <v>19</v>
-      </c>
-      <c r="E113">
-        <v>157.142</v>
-      </c>
-      <c r="F113">
-        <v>256.0723026899452</v>
-      </c>
-      <c r="G113">
-        <v>-56.4498746295908</v>
-      </c>
-      <c r="H113">
-        <v>1248.867909105114</v>
-      </c>
-      <c r="I113">
-        <v>-1493.796644563987</v>
-      </c>
-      <c r="J113">
-        <v>3200.69940215693</v>
-      </c>
-      <c r="K113">
-        <v>1287.055365562876</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114">
-        <v>41</v>
-      </c>
-      <c r="B114" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114" t="s">
-        <v>16</v>
-      </c>
-      <c r="D114" t="s">
-        <v>19</v>
-      </c>
-      <c r="E114">
-        <v>158.142</v>
-      </c>
-      <c r="F114">
-        <v>256.0723026899452</v>
-      </c>
-      <c r="G114">
-        <v>-56.4498746295908</v>
-      </c>
-      <c r="H114">
-        <v>1248.867909105114</v>
-      </c>
-      <c r="I114">
-        <v>-1456.637591402657</v>
-      </c>
-      <c r="J114">
-        <v>3112.058552126291</v>
-      </c>
-      <c r="K114">
-        <v>1501.693656615466</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115">
-        <v>41</v>
-      </c>
-      <c r="B115" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" t="s">
-        <v>16</v>
-      </c>
-      <c r="D115" t="s">
-        <v>19</v>
-      </c>
-      <c r="E115">
-        <v>159.142</v>
-      </c>
-      <c r="F115">
-        <v>256.0723026899452</v>
-      </c>
-      <c r="G115">
-        <v>-56.4498746295908</v>
-      </c>
-      <c r="H115">
-        <v>1248.867909105114</v>
-      </c>
-      <c r="I115">
-        <v>-1418.563530742932</v>
-      </c>
-      <c r="J115">
-        <v>3023.417702095653</v>
-      </c>
-      <c r="K115">
-        <v>1702.07435364806</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116">
-        <v>41</v>
-      </c>
-      <c r="B116" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" t="s">
-        <v>16</v>
-      </c>
-      <c r="D116" t="s">
-        <v>19</v>
-      </c>
-      <c r="E116">
-        <v>160.142</v>
-      </c>
-      <c r="F116">
-        <v>256.0723026899452</v>
-      </c>
-      <c r="G116">
-        <v>-47.12841136881135</v>
-      </c>
-      <c r="H116">
-        <v>1248.867909105114</v>
-      </c>
-      <c r="I116">
-        <v>-1379.551931366955</v>
-      </c>
-      <c r="J116">
-        <v>2934.776852065016</v>
-      </c>
-      <c r="K116">
-        <v>1888.197456660659</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117">
-        <v>41</v>
-      </c>
-      <c r="B117" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" t="s">
-        <v>16</v>
-      </c>
-      <c r="D117" t="s">
-        <v>19</v>
-      </c>
-      <c r="E117">
-        <v>161.142</v>
-      </c>
-      <c r="F117">
-        <v>198.7419793753888</v>
-      </c>
-      <c r="G117">
-        <v>-37.8069481080319</v>
-      </c>
-      <c r="H117">
-        <v>1538.596860315633</v>
-      </c>
-      <c r="I117">
-        <v>-1339.579707246357</v>
-      </c>
-      <c r="J117">
-        <v>2846.136002034378</v>
-      </c>
-      <c r="K117">
-        <v>2060.062965653262</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118">
-        <v>41</v>
-      </c>
-      <c r="B118" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118" t="s">
-        <v>16</v>
-      </c>
-      <c r="D118" t="s">
-        <v>19</v>
-      </c>
-      <c r="E118">
-        <v>162.142</v>
-      </c>
-      <c r="F118">
-        <v>165.0632904275633</v>
-      </c>
-      <c r="G118">
-        <v>-28.48548484725245</v>
-      </c>
-      <c r="H118">
-        <v>1711.17424095771</v>
-      </c>
-      <c r="I118">
-        <v>-1298.623203880562</v>
-      </c>
-      <c r="J118">
-        <v>2757.495152003739</v>
-      </c>
-      <c r="K118">
-        <v>2217.670880625872</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119">
-        <v>41</v>
-      </c>
-      <c r="B119" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" t="s">
-        <v>16</v>
-      </c>
-      <c r="D119" t="s">
-        <v>19</v>
-      </c>
-      <c r="E119">
-        <v>163.142</v>
-      </c>
-      <c r="F119">
-        <v>143.8028311700643</v>
-      </c>
-      <c r="G119">
-        <v>-19.164021586473</v>
-      </c>
-      <c r="H119">
-        <v>1834.503630843353</v>
-      </c>
-      <c r="I119">
-        <v>-1256.658184298676</v>
-      </c>
-      <c r="J119">
-        <v>2668.854301973101</v>
-      </c>
-      <c r="K119">
-        <v>2361.021201578486</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120">
-        <v>41</v>
-      </c>
-      <c r="B120" t="s">
-        <v>13</v>
-      </c>
-      <c r="C120" t="s">
-        <v>16</v>
-      </c>
-      <c r="D120" t="s">
-        <v>19</v>
-      </c>
-      <c r="E120">
-        <v>164.142</v>
-      </c>
-      <c r="F120">
-        <v>128.9758731851551</v>
-      </c>
-      <c r="G120">
-        <v>-9.842558325693545</v>
-      </c>
-      <c r="H120">
-        <v>1930.540160673534</v>
-      </c>
-      <c r="I120">
-        <v>-1213.659814716696</v>
-      </c>
-      <c r="J120">
-        <v>2580.213451942463</v>
-      </c>
-      <c r="K120">
-        <v>2490.113928511104</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121">
-        <v>41</v>
-      </c>
-      <c r="B121" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" t="s">
-        <v>16</v>
-      </c>
-      <c r="D121" t="s">
-        <v>19</v>
-      </c>
-      <c r="E121">
-        <v>165.142</v>
-      </c>
-      <c r="F121">
-        <v>117.9145185116823</v>
-      </c>
-      <c r="G121">
-        <v>-0.5210950649141014</v>
-      </c>
-      <c r="H121">
-        <v>2009.201527876719</v>
-      </c>
-      <c r="I121">
-        <v>-1169.602649841535</v>
-      </c>
-      <c r="J121">
-        <v>2491.572601911825</v>
-      </c>
-      <c r="K121">
-        <v>2604.949061423727</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122">
-        <v>41</v>
-      </c>
-      <c r="B122" t="s">
-        <v>13</v>
-      </c>
-      <c r="C122" t="s">
-        <v>16</v>
-      </c>
-      <c r="D122" t="s">
-        <v>19</v>
-      </c>
-      <c r="E122">
-        <v>166.142</v>
-      </c>
-      <c r="F122">
-        <v>109.266083829412</v>
-      </c>
-      <c r="G122">
-        <v>8.800368195865351</v>
-      </c>
-      <c r="H122">
-        <v>2075.821963896313</v>
-      </c>
-      <c r="I122">
-        <v>-1124.460617813171</v>
-      </c>
-      <c r="J122">
-        <v>2402.931751881187</v>
-      </c>
-      <c r="K122">
-        <v>2705.526600316356</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123">
-        <v>41</v>
-      </c>
-      <c r="B123" t="s">
-        <v>13</v>
-      </c>
-      <c r="C123" t="s">
-        <v>16</v>
-      </c>
-      <c r="D123" t="s">
-        <v>19</v>
-      </c>
-      <c r="E123">
-        <v>167.142</v>
-      </c>
-      <c r="F123">
-        <v>102.2688704582779</v>
-      </c>
-      <c r="G123">
-        <v>18.1218314566448</v>
-      </c>
-      <c r="H123">
-        <v>2133.603058753679</v>
-      </c>
-      <c r="I123">
-        <v>-1078.207004776017</v>
-      </c>
-      <c r="J123">
-        <v>2314.290901850549</v>
-      </c>
-      <c r="K123">
-        <v>2791.846545188988</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124">
-        <v>41</v>
-      </c>
-      <c r="B124" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124" t="s">
-        <v>16</v>
-      </c>
-      <c r="D124" t="s">
-        <v>19</v>
-      </c>
-      <c r="E124">
-        <v>168.142</v>
-      </c>
-      <c r="F124">
-        <v>96.4586901134379</v>
-      </c>
-      <c r="G124">
-        <v>27.44329471742425</v>
-      </c>
-      <c r="H124">
-        <v>2184.618047859696</v>
-      </c>
-      <c r="I124">
-        <v>-1030.814439070366</v>
-      </c>
-      <c r="J124">
-        <v>2225.65005181991</v>
-      </c>
-      <c r="K124">
-        <v>2863.908896041626</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125">
-        <v>41</v>
-      </c>
-      <c r="B125" t="s">
-        <v>13</v>
-      </c>
-      <c r="C125" t="s">
-        <v>16</v>
-      </c>
-      <c r="D125" t="s">
-        <v>19</v>
-      </c>
-      <c r="E125">
-        <v>169.142</v>
-      </c>
-      <c r="F125">
-        <v>91.53499943293933</v>
-      </c>
-      <c r="G125">
-        <v>36.76475797820371</v>
-      </c>
-      <c r="H125">
-        <v>2230.286728798639</v>
-      </c>
-      <c r="I125">
-        <v>-982.2548750345751</v>
-      </c>
-      <c r="J125">
-        <v>2137.009201789272</v>
-      </c>
-      <c r="K125">
-        <v>2921.713652874269</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126">
-        <v>41</v>
-      </c>
-      <c r="B126" t="s">
-        <v>13</v>
-      </c>
-      <c r="C126" t="s">
-        <v>16</v>
-      </c>
-      <c r="D126" t="s">
-        <v>19</v>
-      </c>
-      <c r="E126">
-        <v>170.142</v>
-      </c>
-      <c r="F126">
-        <v>87.29372026875612</v>
-      </c>
-      <c r="G126">
-        <v>46.08622123898316</v>
-      </c>
-      <c r="H126">
-        <v>2271.624138263306</v>
-      </c>
-      <c r="I126">
-        <v>-932.4995764083822</v>
-      </c>
-      <c r="J126">
-        <v>2048.368351758634</v>
-      </c>
-      <c r="K126">
-        <v>2965.260815686916</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127">
-        <v>41</v>
-      </c>
-      <c r="B127" t="s">
-        <v>13</v>
-      </c>
-      <c r="C127" t="s">
-        <v>16</v>
-      </c>
-      <c r="D127" t="s">
-        <v>19</v>
-      </c>
-      <c r="E127">
-        <v>171.142</v>
-      </c>
-      <c r="F127">
-        <v>83.59086440417373</v>
-      </c>
-      <c r="G127">
-        <v>55.4076844997626</v>
-      </c>
-      <c r="H127">
-        <v>2309.381141815028</v>
-      </c>
-      <c r="I127">
-        <v>-881.519099327555</v>
-      </c>
-      <c r="J127">
-        <v>1959.727501727996</v>
-      </c>
-      <c r="K127">
-        <v>2994.550384479568</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128">
-        <v>41</v>
-      </c>
-      <c r="B128" t="s">
-        <v>13</v>
-      </c>
-      <c r="C128" t="s">
-        <v>16</v>
-      </c>
-      <c r="D128" t="s">
-        <v>19</v>
-      </c>
-      <c r="E128">
-        <v>172.142</v>
-      </c>
-      <c r="F128">
-        <v>80.32159264971999</v>
-      </c>
-      <c r="G128">
-        <v>64.72914776054206</v>
-      </c>
-      <c r="H128">
-        <v>2344.128830596173</v>
-      </c>
-      <c r="I128">
-        <v>-829.2832748997909</v>
-      </c>
-      <c r="J128">
-        <v>1871.086651697358</v>
-      </c>
-      <c r="K128">
-        <v>3009.582359252226</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129">
-        <v>41</v>
-      </c>
-      <c r="B129" t="s">
-        <v>13</v>
-      </c>
-      <c r="C129" t="s">
-        <v>16</v>
-      </c>
-      <c r="D129" t="s">
-        <v>19</v>
-      </c>
-      <c r="E129">
-        <v>173.142</v>
-      </c>
-      <c r="F129">
-        <v>77.40753732859331</v>
-      </c>
-      <c r="G129">
-        <v>74.0506110213215</v>
-      </c>
-      <c r="H129">
-        <v>2376.311693224311</v>
-      </c>
-      <c r="I129">
-        <v>-775.7611913515705</v>
-      </c>
-      <c r="J129">
-        <v>1782.44580166672</v>
-      </c>
-      <c r="K129">
-        <v>3010.356740004887</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130">
-        <v>41</v>
-      </c>
-      <c r="B130" t="s">
-        <v>13</v>
-      </c>
-      <c r="C130" t="s">
-        <v>16</v>
-      </c>
-      <c r="D130" t="s">
-        <v>19</v>
-      </c>
-      <c r="E130">
-        <v>174.142</v>
-      </c>
-      <c r="F130">
-        <v>74.78879840872018</v>
-      </c>
-      <c r="G130">
-        <v>83.37207428210097</v>
-      </c>
-      <c r="H130">
-        <v>2406.28247571667</v>
-      </c>
-      <c r="I130">
-        <v>-720.9211757353894</v>
-      </c>
-      <c r="J130">
-        <v>1693.804951636082</v>
-      </c>
-      <c r="K130">
-        <v>2996.873526737554</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131">
-        <v>41</v>
-      </c>
-      <c r="B131" t="s">
-        <v>13</v>
-      </c>
-      <c r="C131" t="s">
-        <v>16</v>
-      </c>
-      <c r="D131" t="s">
-        <v>19</v>
-      </c>
-      <c r="E131">
-        <v>175.142</v>
-      </c>
-      <c r="F131">
-        <v>72.41870761029668</v>
-      </c>
-      <c r="G131">
-        <v>92.69353754288041</v>
-      </c>
-      <c r="H131">
-        <v>2434.325811986017</v>
-      </c>
-      <c r="I131">
-        <v>-664.7307751865485</v>
-      </c>
-      <c r="J131">
-        <v>1605.164101605444</v>
-      </c>
-      <c r="K131">
-        <v>2969.132719450226</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132">
-        <v>41</v>
-      </c>
-      <c r="B132" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" t="s">
-        <v>19</v>
-      </c>
-      <c r="E132">
-        <v>176.142</v>
-      </c>
-      <c r="F132">
-        <v>70.26029739144099</v>
-      </c>
-      <c r="G132">
-        <v>102.0150008036599</v>
-      </c>
-      <c r="H132">
-        <v>2460.674704207821</v>
-      </c>
-      <c r="I132">
-        <v>-607.1567377184133</v>
-      </c>
-      <c r="J132">
-        <v>1516.523251574805</v>
-      </c>
-      <c r="K132">
-        <v>2927.134318142902</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133">
-        <v>41</v>
-      </c>
-      <c r="B133" t="s">
-        <v>13</v>
-      </c>
-      <c r="C133" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133" t="s">
-        <v>19</v>
-      </c>
-      <c r="E133">
-        <v>177.142</v>
-      </c>
-      <c r="F133">
-        <v>68.28385606036508</v>
-      </c>
-      <c r="G133">
-        <v>111.3364640644393</v>
-      </c>
-      <c r="H133">
-        <v>2485.522301758147</v>
-      </c>
-      <c r="I133">
-        <v>-548.1649925447687</v>
-      </c>
-      <c r="J133">
-        <v>1427.882401544167</v>
-      </c>
-      <c r="K133">
-        <v>2870.878322815583</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134">
-        <v>41</v>
-      </c>
-      <c r="B134" t="s">
-        <v>13</v>
-      </c>
-      <c r="C134" t="s">
-        <v>16</v>
-      </c>
-      <c r="D134" t="s">
-        <v>19</v>
-      </c>
-      <c r="E134">
-        <v>178.142</v>
-      </c>
-      <c r="F134">
-        <v>66.46519543605795</v>
-      </c>
-      <c r="G134">
-        <v>120.6579273252188</v>
-      </c>
-      <c r="H134">
-        <v>2509.030501656385</v>
-      </c>
-      <c r="I134">
-        <v>-487.7206299176337</v>
-      </c>
-      <c r="J134">
-        <v>1339.241551513529</v>
-      </c>
-      <c r="K134">
-        <v>2800.364733468269</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135">
-        <v>41</v>
-      </c>
-      <c r="B135" t="s">
-        <v>13</v>
-      </c>
-      <c r="C135" t="s">
-        <v>16</v>
-      </c>
-      <c r="D135" t="s">
-        <v>19</v>
-      </c>
-      <c r="E135">
-        <v>179.142</v>
-      </c>
-      <c r="F135">
-        <v>64.78439817117082</v>
-      </c>
-      <c r="G135">
-        <v>129.9793905859982</v>
-      </c>
-      <c r="H135">
-        <v>2531.336347265176</v>
-      </c>
-      <c r="I135">
-        <v>-425.7878804685988</v>
-      </c>
-      <c r="J135">
-        <v>1250.600701482891</v>
-      </c>
-      <c r="K135">
-        <v>2715.593550100959</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136">
-        <v>41</v>
-      </c>
-      <c r="B136" t="s">
-        <v>13</v>
-      </c>
-      <c r="C136" t="s">
-        <v>16</v>
-      </c>
-      <c r="D136" t="s">
-        <v>19</v>
-      </c>
-      <c r="E136">
-        <v>180.142</v>
-      </c>
-      <c r="F136">
-        <v>63.22489540878782</v>
-      </c>
-      <c r="G136">
-        <v>139.3008538467776</v>
-      </c>
-      <c r="H136">
-        <v>2552.55686881375</v>
-      </c>
-      <c r="I136">
-        <v>-362.3300940414664</v>
-      </c>
-      <c r="J136">
-        <v>1161.959851452253</v>
-      </c>
-      <c r="K136">
-        <v>2616.564772713655</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137">
-        <v>41</v>
-      </c>
-      <c r="B137" t="s">
-        <v>13</v>
-      </c>
-      <c r="C137" t="s">
-        <v>16</v>
-      </c>
-      <c r="D137" t="s">
-        <v>19</v>
-      </c>
-      <c r="E137">
-        <v>181.142</v>
-      </c>
-      <c r="F137">
-        <v>61.77277659944907</v>
-      </c>
-      <c r="G137">
-        <v>148.6223171075571</v>
-      </c>
-      <c r="H137">
-        <v>2572.792800002771</v>
-      </c>
-      <c r="I137">
-        <v>-297.309718003659</v>
-      </c>
-      <c r="J137">
-        <v>1073.319001421615</v>
-      </c>
-      <c r="K137">
-        <v>2503.278401306356</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138">
-        <v>41</v>
-      </c>
-      <c r="B138" t="s">
-        <v>13</v>
-      </c>
-      <c r="C138" t="s">
-        <v>16</v>
-      </c>
-      <c r="D138" t="s">
-        <v>19</v>
-      </c>
-      <c r="E138">
-        <v>182.142</v>
-      </c>
-      <c r="F138">
-        <v>60.41626547865908</v>
-      </c>
-      <c r="G138">
-        <v>157.9437803683366</v>
-      </c>
-      <c r="H138">
-        <v>2592.131469997093</v>
-      </c>
-      <c r="I138">
-        <v>-230.6882750235698</v>
-      </c>
-      <c r="J138">
-        <v>984.6781513909765</v>
-      </c>
-      <c r="K138">
-        <v>2375.73443587906</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139">
-        <v>41</v>
-      </c>
-      <c r="B139" t="s">
-        <v>13</v>
-      </c>
-      <c r="C139" t="s">
-        <v>16</v>
-      </c>
-      <c r="D139" t="s">
-        <v>19</v>
-      </c>
-      <c r="E139">
-        <v>183.142</v>
-      </c>
-      <c r="F139">
-        <v>59.14531693579877</v>
-      </c>
-      <c r="G139">
-        <v>167.265243629116</v>
-      </c>
-      <c r="H139">
-        <v>2610.649081059792</v>
-      </c>
-      <c r="I139">
-        <v>-162.4263403006991</v>
-      </c>
-      <c r="J139">
-        <v>896.0373013603387</v>
-      </c>
-      <c r="K139">
-        <v>2233.932876431771</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140">
-        <v>41</v>
-      </c>
-      <c r="B140" t="s">
-        <v>13</v>
-      </c>
-      <c r="C140" t="s">
-        <v>16</v>
-      </c>
-      <c r="D140" t="s">
-        <v>19</v>
-      </c>
-      <c r="E140">
-        <v>184.142</v>
-      </c>
-      <c r="F140">
-        <v>57.95130315659598</v>
-      </c>
-      <c r="G140">
-        <v>176.5867068898955</v>
-      </c>
-      <c r="H140">
-        <v>2628.412522078479</v>
-      </c>
-      <c r="I140">
-        <v>-92.48351823510612</v>
-      </c>
-      <c r="J140">
-        <v>807.3964513297003</v>
-      </c>
-      <c r="K140">
-        <v>2077.873722964485</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141">
-        <v>41</v>
-      </c>
-      <c r="B141" t="s">
-        <v>13</v>
-      </c>
-      <c r="C141" t="s">
-        <v>16</v>
-      </c>
-      <c r="D141" t="s">
-        <v>19</v>
-      </c>
-      <c r="E141">
-        <v>185.142</v>
-      </c>
-      <c r="F141">
-        <v>56.82676658950906</v>
-      </c>
-      <c r="G141">
-        <v>185.9081701506749</v>
-      </c>
-      <c r="H141">
-        <v>2645.480827038061</v>
-      </c>
-      <c r="I141">
-        <v>-20.81841852236463</v>
-      </c>
-      <c r="J141">
-        <v>718.7556012990621</v>
-      </c>
-      <c r="K141">
-        <v>1907.556975477205</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142">
-        <v>41</v>
-      </c>
-      <c r="B142" t="s">
-        <v>13</v>
-      </c>
-      <c r="C142" t="s">
-        <v>16</v>
-      </c>
-      <c r="D142" t="s">
-        <v>19</v>
-      </c>
-      <c r="E142">
-        <v>186.142</v>
-      </c>
-      <c r="F142">
-        <v>55.76522355501709</v>
-      </c>
-      <c r="G142">
-        <v>195.2296334114544</v>
-      </c>
-      <c r="H142">
-        <v>2661.906358721443</v>
-      </c>
-      <c r="I142">
-        <v>52.61136834012053</v>
-      </c>
-      <c r="J142">
-        <v>630.1147512684242</v>
-      </c>
-      <c r="K142">
-        <v>1722.98263396993</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="A143">
-        <v>41</v>
-      </c>
-      <c r="B143" t="s">
-        <v>13</v>
-      </c>
-      <c r="C143" t="s">
-        <v>16</v>
-      </c>
-      <c r="D143" t="s">
-        <v>19</v>
-      </c>
-      <c r="E143">
-        <v>187.142</v>
-      </c>
-      <c r="F143">
-        <v>54.76100667365645</v>
-      </c>
-      <c r="G143">
-        <v>204.5510966722338</v>
-      </c>
-      <c r="H143">
-        <v>2677.735777508607</v>
-      </c>
-      <c r="I143">
-        <v>127.8492961499291</v>
-      </c>
-      <c r="J143">
-        <v>541.473901237786</v>
-      </c>
-      <c r="K143">
-        <v>1524.150698442659</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="A144">
-        <v>41</v>
-      </c>
-      <c r="B144" t="s">
-        <v>13</v>
-      </c>
-      <c r="C144" t="s">
-        <v>16</v>
-      </c>
-      <c r="D144" t="s">
-        <v>19</v>
-      </c>
-      <c r="E144">
-        <v>188.142</v>
-      </c>
-      <c r="F144">
-        <v>53.80913736250392</v>
-      </c>
-      <c r="G144">
-        <v>213.8725599330133</v>
-      </c>
-      <c r="H144">
-        <v>2693.010840456893</v>
-      </c>
-      <c r="I144">
-        <v>204.9398887144304</v>
-      </c>
-      <c r="J144">
-        <v>452.8330512071481</v>
-      </c>
-      <c r="K144">
-        <v>1311.061168895394</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145">
-        <v>41</v>
-      </c>
-      <c r="B145" t="s">
-        <v>13</v>
-      </c>
-      <c r="C145" t="s">
-        <v>16</v>
-      </c>
-      <c r="D145" t="s">
-        <v>19</v>
-      </c>
-      <c r="E145">
-        <v>189.142</v>
-      </c>
-      <c r="F145">
-        <v>52.90522184867937</v>
-      </c>
-      <c r="G145">
-        <v>223.1940231937927</v>
-      </c>
-      <c r="H145">
-        <v>2707.769065136562</v>
-      </c>
-      <c r="I145">
-        <v>283.9287661987871</v>
-      </c>
-      <c r="J145">
-        <v>364.1922011765098</v>
-      </c>
-      <c r="K145">
-        <v>1083.714045328132</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146">
-        <v>41</v>
-      </c>
-      <c r="B146" t="s">
-        <v>13</v>
-      </c>
-      <c r="C146" t="s">
-        <v>16</v>
-      </c>
-      <c r="D146" t="s">
-        <v>19</v>
-      </c>
-      <c r="E146">
-        <v>190.142</v>
-      </c>
-      <c r="F146">
-        <v>52.04536574157353</v>
-      </c>
-      <c r="G146">
-        <v>232.5154864545722</v>
-      </c>
-      <c r="H146">
-        <v>2722.04428479294</v>
-      </c>
-      <c r="I146">
-        <v>364.862672122762</v>
-      </c>
-      <c r="J146">
-        <v>275.5513511458715</v>
-      </c>
-      <c r="K146">
-        <v>842.1093277408755</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="A147">
-        <v>41</v>
-      </c>
-      <c r="B147" t="s">
-        <v>13</v>
-      </c>
-      <c r="C147" t="s">
-        <v>16</v>
-      </c>
-      <c r="D147" t="s">
-        <v>19</v>
-      </c>
-      <c r="E147">
-        <v>191.142</v>
-      </c>
-      <c r="F147">
-        <v>51.22610337349244</v>
-      </c>
-      <c r="G147">
-        <v>241.8369497153516</v>
-      </c>
-      <c r="H147">
-        <v>2735.867115508554</v>
-      </c>
-      <c r="I147">
-        <v>447.7895010222854</v>
-      </c>
-      <c r="J147">
-        <v>186.9105011152336</v>
-      </c>
-      <c r="K147">
-        <v>586.2470161336245</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="A148">
-        <v>41</v>
-      </c>
-      <c r="B148" t="s">
-        <v>13</v>
-      </c>
-      <c r="C148" t="s">
-        <v>16</v>
-      </c>
-      <c r="D148" t="s">
-        <v>19</v>
-      </c>
-      <c r="E148">
-        <v>192.142</v>
-      </c>
-      <c r="F148">
-        <v>50.44433898416539</v>
-      </c>
-      <c r="G148">
-        <v>251.158412976131</v>
-      </c>
-      <c r="H148">
-        <v>2749.265351591077</v>
-      </c>
-      <c r="I148">
-        <v>532.7583267921776</v>
-      </c>
-      <c r="J148">
-        <v>98.26965108459534</v>
-      </c>
-      <c r="K148">
-        <v>316.1271105063774</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="A149">
-        <v>41</v>
-      </c>
-      <c r="B149" t="s">
-        <v>13</v>
-      </c>
-      <c r="C149" t="s">
-        <v>16</v>
-      </c>
-      <c r="D149" t="s">
-        <v>19</v>
-      </c>
-      <c r="E149">
-        <v>193.142</v>
-      </c>
-      <c r="F149">
-        <v>49.69729747287379</v>
-      </c>
-      <c r="G149">
-        <v>260.4798762369106</v>
-      </c>
-      <c r="H149">
-        <v>2762.26430202628</v>
-      </c>
-      <c r="I149">
-        <v>619.8194317267664</v>
-      </c>
-      <c r="J149">
-        <v>9.628801053957055</v>
-      </c>
-      <c r="K149">
-        <v>31.74961085913546</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150">
-        <v>41</v>
-      </c>
-      <c r="B150" t="s">
-        <v>13</v>
-      </c>
-      <c r="C150" t="s">
-        <v>16</v>
-      </c>
-      <c r="D150" t="s">
-        <v>19</v>
-      </c>
-      <c r="E150">
-        <v>194.142</v>
-      </c>
-      <c r="F150">
-        <v>48.9824829321136</v>
-      </c>
-      <c r="G150">
-        <v>269.80133949769</v>
-      </c>
-      <c r="H150">
-        <v>2774.887078233111</v>
-      </c>
-      <c r="I150">
-        <v>709.0243362756208</v>
-      </c>
-      <c r="J150">
-        <v>-79.01204897668082</v>
-      </c>
-      <c r="K150">
-        <v>-266.8854828081009</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151">
-        <v>41</v>
-      </c>
-      <c r="B151" t="s">
-        <v>13</v>
-      </c>
-      <c r="C151" t="s">
-        <v>16</v>
-      </c>
-      <c r="D151" t="s">
-        <v>19</v>
-      </c>
-      <c r="E151">
-        <v>195.142</v>
-      </c>
-      <c r="F151">
-        <v>48.29764355060077</v>
-      </c>
-      <c r="G151">
-        <v>279.1228027584694</v>
-      </c>
-      <c r="H151">
-        <v>2787.154841341643</v>
-      </c>
-      <c r="I151">
-        <v>800.4258295319838</v>
-      </c>
-      <c r="J151">
-        <v>-167.6528990073191</v>
-      </c>
-      <c r="K151">
-        <v>-579.7781704953333</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152">
-        <v>41</v>
-      </c>
-      <c r="B152" t="s">
-        <v>13</v>
-      </c>
-      <c r="C152" t="s">
-        <v>16</v>
-      </c>
-      <c r="D152" t="s">
-        <v>19</v>
-      </c>
-      <c r="E152">
-        <v>196.142</v>
-      </c>
-      <c r="F152">
-        <v>47.64074176104413</v>
-      </c>
-      <c r="G152">
-        <v>288.4442660192489</v>
-      </c>
-      <c r="H152">
-        <v>2799.087015639836</v>
-      </c>
-      <c r="I152">
-        <v>894.0780004719535</v>
-      </c>
-      <c r="J152">
-        <v>-256.2937490379574</v>
-      </c>
-      <c r="K152">
-        <v>-906.9284522025616</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153">
-        <v>41</v>
-      </c>
-      <c r="B153" t="s">
-        <v>13</v>
-      </c>
-      <c r="C153" t="s">
-        <v>16</v>
-      </c>
-      <c r="D153" t="s">
-        <v>19</v>
-      </c>
-      <c r="E153">
-        <v>197.142</v>
-      </c>
-      <c r="F153">
-        <v>47.00992873111208</v>
-      </c>
-      <c r="G153">
-        <v>297.7657292800283</v>
-      </c>
-      <c r="H153">
-        <v>2810.701473595791</v>
-      </c>
-      <c r="I153">
-        <v>990.0362699629023</v>
-      </c>
-      <c r="J153">
-        <v>-344.9345990685957</v>
-      </c>
-      <c r="K153">
-        <v>-1248.336327929785</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154">
-        <v>41</v>
-      </c>
-      <c r="B154" t="s">
-        <v>13</v>
-      </c>
-      <c r="C154" t="s">
-        <v>16</v>
-      </c>
-      <c r="D154" t="s">
-        <v>19</v>
-      </c>
-      <c r="E154">
-        <v>198.142</v>
-      </c>
-      <c r="F154">
-        <v>46.40352247019845</v>
-      </c>
-      <c r="G154">
-        <v>307.0871925408077</v>
-      </c>
-      <c r="H154">
-        <v>2822.014696880237</v>
-      </c>
-      <c r="I154">
-        <v>1088.357423560076</v>
-      </c>
-      <c r="J154">
-        <v>-433.5754490992331</v>
-      </c>
-      <c r="K154">
-        <v>-1604.001797677</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155">
-        <v>41</v>
-      </c>
-      <c r="B155" t="s">
-        <v>13</v>
-      </c>
-      <c r="C155" t="s">
-        <v>16</v>
-      </c>
-      <c r="D155" t="s">
-        <v>19</v>
-      </c>
-      <c r="E155">
-        <v>199.142</v>
-      </c>
-      <c r="F155">
-        <v>45.81998896160463</v>
-      </c>
-      <c r="G155">
-        <v>316.4086558015873</v>
-      </c>
-      <c r="H155">
-        <v>2833.041917030667</v>
-      </c>
-      <c r="I155">
-        <v>1189.099645110779</v>
-      </c>
-      <c r="J155">
-        <v>-522.2162991298715</v>
-      </c>
-      <c r="K155">
-        <v>-1973.924861444213</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156">
-        <v>41</v>
-      </c>
-      <c r="B156" t="s">
-        <v>13</v>
-      </c>
-      <c r="C156" t="s">
-        <v>16</v>
-      </c>
-      <c r="D156" t="s">
-        <v>19</v>
-      </c>
-      <c r="E156">
-        <v>200.142</v>
-      </c>
-      <c r="F156">
-        <v>45.25792583823563</v>
-      </c>
-      <c r="G156">
-        <v>325.7301190623667</v>
-      </c>
-      <c r="H156">
-        <v>2843.797238769835</v>
-      </c>
-      <c r="I156">
-        <v>1292.322551186022</v>
-      </c>
-      <c r="J156">
-        <v>-610.8571491605097</v>
-      </c>
-      <c r="K156">
-        <v>-2358.105519231422</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157">
-        <v>41</v>
-      </c>
-      <c r="B157" t="s">
-        <v>13</v>
-      </c>
-      <c r="C157" t="s">
-        <v>16</v>
-      </c>
-      <c r="D157" t="s">
-        <v>19</v>
-      </c>
-      <c r="E157">
-        <v>201.142</v>
-      </c>
-      <c r="F157">
-        <v>44.71604820634437</v>
-      </c>
-      <c r="G157">
-        <v>335.0515823231461</v>
-      </c>
-      <c r="H157">
-        <v>2854.293748483667</v>
-      </c>
-      <c r="I157">
-        <v>1398.087226360036</v>
-      </c>
-      <c r="J157">
-        <v>-699.497999191148</v>
-      </c>
-      <c r="K157">
-        <v>-2756.543771038626</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158">
-        <v>41</v>
-      </c>
-      <c r="B158" t="s">
-        <v>13</v>
-      </c>
-      <c r="C158" t="s">
-        <v>16</v>
-      </c>
-      <c r="D158" t="s">
-        <v>19</v>
-      </c>
-      <c r="E158">
-        <v>202.142</v>
-      </c>
-      <c r="F158">
-        <v>44.19317629113828</v>
-      </c>
-      <c r="G158">
-        <v>344.3730455839256</v>
-      </c>
-      <c r="H158">
-        <v>2864.543609951489</v>
-      </c>
-      <c r="I158">
-        <v>1506.456259358494</v>
-      </c>
-      <c r="J158">
-        <v>-788.1388492217862</v>
-      </c>
-      <c r="K158">
-        <v>-3169.239616865824</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159">
-        <v>41</v>
-      </c>
-      <c r="B159" t="s">
-        <v>13</v>
-      </c>
-      <c r="C159" t="s">
-        <v>16</v>
-      </c>
-      <c r="D159" t="s">
-        <v>19</v>
-      </c>
-      <c r="E159">
-        <v>203.142</v>
-      </c>
-      <c r="F159">
-        <v>43.68822463389805</v>
-      </c>
-      <c r="G159">
-        <v>353.694508844705</v>
-      </c>
-      <c r="H159">
-        <v>2874.55814908499</v>
-      </c>
-      <c r="I159">
-        <v>1617.493780096855</v>
-      </c>
-      <c r="J159">
-        <v>-876.7796992524237</v>
-      </c>
-      <c r="K159">
-        <v>-3596.193056713015</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160">
-        <v>41</v>
-      </c>
-      <c r="B160" t="s">
-        <v>13</v>
-      </c>
-      <c r="C160" t="s">
-        <v>16</v>
-      </c>
-      <c r="D160" t="s">
-        <v>19</v>
-      </c>
-      <c r="E160">
-        <v>204.142</v>
-      </c>
-      <c r="F160">
-        <v>43.20019261551155</v>
-      </c>
-      <c r="G160">
-        <v>363.0159721054844</v>
-      </c>
-      <c r="H160">
-        <v>2884.347929156363</v>
-      </c>
-      <c r="I160">
-        <v>1731.265497630754</v>
-      </c>
-      <c r="J160">
-        <v>-965.420549283062</v>
-      </c>
-      <c r="K160">
-        <v>-4037.404090580205</v>
+        <v>3980079.760888725</v>
       </c>
     </row>
   </sheetData>
